--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="21960" windowHeight="14004" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="debug_case" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -26,6 +26,9 @@
     <t>module</t>
   </si>
   <si>
+    <t>case_description</t>
+  </si>
+  <si>
     <t>case_url</t>
   </si>
   <si>
@@ -44,21 +47,46 @@
     <t>case_expect</t>
   </si>
   <si>
-    <t>case_description</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>ysy_test</t>
+  </si>
+  <si>
+    <t>invitation_006_invite_Visitor</t>
+  </si>
+  <si>
+    <t>访客邀请--二维码邀请</t>
+  </si>
+  <si>
+    <t>/api/v1/family/visitor/inviteVisitor?</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"j::accessToken"}</t>
+  </si>
+  <si>
+    <t>houseId$$select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
+where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
+  </si>
+  <si>
+    <t>{"visitorId":"","userId":"j::userId","mobile":"","name":"Auto1305","times":"3","startTime":"2020-07-13","endTime":"2020-07-13","biotopeId":"45b238db5af04515869dc9cbcf14a431","houseId":"j::houseId"}</t>
+  </si>
+  <si>
+    <t>isSupport": "Y</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
-    <t>ysy_test</t>
-  </si>
-  <si>
     <t>login_01_get_verifycode</t>
   </si>
   <si>
+    <t>获取验证码时无手机号</t>
+  </si>
+  <si>
     <t>/api/v1/verifycode/getVerifyCode?</t>
   </si>
   <si>
@@ -68,24 +96,27 @@
     <t>请求参数错误</t>
   </si>
   <si>
-    <t>获取验证码时无手机号</t>
+    <t>缺少签名参数</t>
   </si>
   <si>
     <t>0002</t>
   </si>
   <si>
+    <t>获取验证码时手机号为空</t>
+  </si>
+  <si>
     <t>/api/v1/verifycode/getVerifyCode?mobile=</t>
   </si>
   <si>
     <t>手机号不能为空</t>
   </si>
   <si>
-    <t>获取验证码时手机号为空</t>
-  </si>
-  <si>
     <t>0003</t>
   </si>
   <si>
+    <t>正常获取验证码</t>
+  </si>
+  <si>
     <t>/api/v1/verifycode/getVerifyCode?mobile=c::tester_debug</t>
   </si>
   <si>
@@ -95,67 +126,64 @@
     <t>code": 0</t>
   </si>
   <si>
-    <t>正常获取验证码</t>
-  </si>
-  <si>
-    <t>缺少签名参数</t>
-  </si>
-  <si>
     <t>0004</t>
   </si>
   <si>
+    <t>正常获取验证码-一分钟内重复获取验证码</t>
+  </si>
+  <si>
     <t>验证码一分钟内不能重复获取</t>
   </si>
   <si>
-    <t>正常获取验证码-一分钟内重复获取验证码</t>
-  </si>
-  <si>
     <t>0005</t>
   </si>
   <si>
     <t>login_02_log_in</t>
   </si>
   <si>
+    <t>登陆--无手机号</t>
+  </si>
+  <si>
     <t>/api/v1/user/login</t>
   </si>
   <si>
     <t>{"verifyCode":"j::verifyCode"}</t>
   </si>
   <si>
-    <t>登陆--无手机号</t>
-  </si>
-  <si>
     <t>0006</t>
   </si>
   <si>
+    <t>登陆--无验证码</t>
+  </si>
+  <si>
     <t>{"mobile":"c::tester_debug"}</t>
   </si>
   <si>
     <t>验证码不能为空</t>
   </si>
   <si>
-    <t>登陆--无验证码</t>
-  </si>
-  <si>
     <t>0007</t>
   </si>
   <si>
+    <t>登陆--过期验证码</t>
+  </si>
+  <si>
     <t>{"mobile":"c::tester_debug","verifyCode":"1111"}</t>
   </si>
   <si>
     <t>验证码不正确</t>
   </si>
   <si>
-    <t>登陆--过期验证码</t>
-  </si>
-  <si>
     <t>0008</t>
   </si>
   <si>
+    <t>登陆--正确验证码</t>
+  </si>
+  <si>
     <t>data/userInfo/userId,data/accessToken</t>
   </si>
   <si>
-    <t>verifyCode$$SELECT IFNULL(vc.verify_code,'Get code error') FROM verify_code vc WHERE vc.mobile={0} ORDER BY vc.create_time DESC LIMIT 1format(c::tester_debug)</t>
+    <t>verifyCode$$SELECT IFNULL(vc.verify_code,'Get code error') FROM verify_code vc WHERE vc.mobile={0} ORDER BY vc.create_time DESC LIMIT 1format(c::tester_debug);</t>
   </si>
   <si>
     <t>{"mobile":"c::tester_debug","verifyCode":"6688"}</t>
@@ -164,13 +192,13 @@
     <t>accessToken</t>
   </si>
   <si>
-    <t>登陆--正确验证码</t>
-  </si>
-  <si>
     <t>0009</t>
   </si>
   <si>
-    <t>invitation_03_bind_house</t>
+    <t>invitation_003_bind_house</t>
+  </si>
+  <si>
+    <t>访客邀请--到访户号--缺少usierid</t>
   </si>
   <si>
     <t>/api/v1/family/house/list?</t>
@@ -202,23 +230,65 @@
     </r>
   </si>
   <si>
-    <t>访客邀请--到访户号--缺少usierid</t>
-  </si>
-  <si>
     <t>0010</t>
   </si>
   <si>
+    <t>访客邀请--到访户号--正常</t>
+  </si>
+  <si>
     <t>/api/v1/family/house/list?userId=j::userId</t>
   </si>
   <si>
-    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"j::accessToken"}</t>
-  </si>
-  <si>
     <t>select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
-where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug)</t>
-  </si>
-  <si>
-    <t>访客邀请--到访户号--正常</t>
+where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>invitation_004_getWaitVisitor</t>
+  </si>
+  <si>
+    <t>访客记录-待来访列表-缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/family/visitor/getWaitVisitor?</t>
+  </si>
+  <si>
+    <t>{"pageNo":1,"pageSize":15}</t>
+  </si>
+  <si>
+    <t>totalCount": 0</t>
+  </si>
+  <si>
+    <t>这里没判断userId是必填项</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>访客记录--待来访列表</t>
+  </si>
+  <si>
+    <t>{"pageNo":1,"pageSize":15,"userId":"j::userId"}</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>invitation_005_getHistoryVisitor</t>
+  </si>
+  <si>
+    <t>访客记录--历史记录-缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/family/visitor/getHistoryVisitor?</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>访客记录--历史记录</t>
   </si>
 </sst>
 </file>
@@ -226,10 +296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -251,13 +321,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -268,14 +345,115 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,120 +467,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -431,37 +501,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,96 +675,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -570,48 +682,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,16 +695,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -644,7 +723,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,31 +758,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +777,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,179 +800,208 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1260,12 +1359,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.33333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.44444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.44444444444444" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.7777777777778" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.1111111111111" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.2222222222222" style="1" customWidth="1"/>
@@ -1275,47 +1374,90 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="14.4"/>
-    <row r="3" customFormat="1" ht="14.4"/>
-    <row r="4" customFormat="1" ht="14.4"/>
-    <row r="5" customFormat="1" ht="14.4"/>
-    <row r="6" customFormat="1" ht="14.4"/>
-    <row r="7" customFormat="1" ht="14.4"/>
-    <row r="8" customFormat="1" ht="14.4"/>
+    <row r="2" s="2" customFormat="1" ht="158.4" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="14.4" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="14.4" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="10"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="14.4"/>
+    <row r="6" s="2" customFormat="1" ht="14.4"/>
+    <row r="7" s="2" customFormat="1" ht="14.4"/>
+    <row r="8" s="2" customFormat="1" ht="14.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1326,333 +1468,485 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="9.77777777777778" customWidth="1"/>
-    <col min="3" max="3" width="25.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="47.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="25.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="22.5555555555556" customWidth="1"/>
-    <col min="8" max="12" width="15.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.4444444444444" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7777777777778" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.7777777777778" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="24" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="I2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="10"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="I3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="J3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="10"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="10"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="I5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="J5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L6" s="19"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="7" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="15"/>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="19"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="15"/>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="19"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A8" s="2" t="s">
+    <row r="9" s="1" customFormat="1" ht="105.6" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="66" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="13.2" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="216" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
+    <row r="12" s="2" customFormat="1" ht="92.4" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="92.4" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="92.4" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="92.4" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="171.6" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21960" windowHeight="14004" activeTab="1"/>
+    <workbookView windowWidth="18971" windowHeight="14315"/>
   </bookViews>
   <sheets>
     <sheet name="debug_case" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -50,32 +50,32 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>0015</t>
+    <t>0016</t>
   </si>
   <si>
     <t>ysy_test</t>
   </si>
   <si>
-    <t>invitation_006_invite_Visitor</t>
-  </si>
-  <si>
-    <t>访客邀请--二维码邀请</t>
-  </si>
-  <si>
-    <t>/api/v1/family/visitor/inviteVisitor?</t>
+    <t>repair_007_favoriteAndTypes</t>
+  </si>
+  <si>
+    <t>报修类型</t>
+  </si>
+  <si>
+    <t>/api/v1/area/repair/favoriteAndTypes?userId=j::userId&amp;biotopeId=j::biotopeId</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"j::accessToken"}</t>
   </si>
   <si>
-    <t>houseId$$select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
-where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
-  </si>
-  <si>
-    <t>{"visitorId":"","userId":"j::userId","mobile":"","name":"Auto1305","times":"3","startTime":"2020-07-13","endTime":"2020-07-13","biotopeId":"45b238db5af04515869dc9cbcf14a431","houseId":"j::houseId"}</t>
-  </si>
-  <si>
-    <t>isSupport": "Y</t>
+    <t>biotopeId$$SELECT IFNULL(h.biotope_id,'biotope is null') FROM member_house_relationship mh 
+INNER JOIN pm_house h ON mh.`id_family_house` = h.`id`
+INNER JOIN `user` u ON mh.`id_user` = u.`id`
+WHERE u.`mobile` = '15828022852'
+AND mh.`is_default` = 'Y';</t>
+  </si>
+  <si>
+    <t>code": 0</t>
   </si>
   <si>
     <t>0001</t>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>data/verifyCode</t>
-  </si>
-  <si>
-    <t>code": 0</t>
   </si>
   <si>
     <t>0004</t>
@@ -290,6 +287,28 @@
   <si>
     <t>访客记录--历史记录</t>
   </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>invitation_006_invite_Visitor</t>
+  </si>
+  <si>
+    <t>访客邀请--二维码邀请</t>
+  </si>
+  <si>
+    <t>/api/v1/family/visitor/inviteVisitor?</t>
+  </si>
+  <si>
+    <t>houseId$$select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
+where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
+  </si>
+  <si>
+    <t>{"visitorId":"","userId":"j::userId","mobile":"","name":"Auto1305","times":"3","startTime":"2020-07-13","endTime":"2020-07-13","biotopeId":"45b238db5af04515869dc9cbcf14a431","houseId":"j::houseId"}</t>
+  </si>
+  <si>
+    <t>isSupport": "Y</t>
+  </si>
 </sst>
 </file>
 
@@ -297,8 +316,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -331,21 +350,105 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,8 +462,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,106 +492,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -501,31 +520,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,151 +688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,8 +717,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,43 +791,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,21 +811,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,133 +831,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1351,13 +1370,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.44444444444444" style="3" customWidth="1"/>
@@ -1408,56 +1427,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="158.4" spans="1:11">
+    <row r="2" ht="211.2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="14"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="14.4" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="10"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="14.4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="10"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="14.4"/>
-    <row r="6" s="2" customFormat="1" ht="14.4"/>
-    <row r="7" s="2" customFormat="1" ht="14.4"/>
-    <row r="8" s="2" customFormat="1" ht="14.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1470,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1527,422 +1522,422 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="10"/>
       <c r="J3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="10"/>
       <c r="J5" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="19"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="105.6" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="I9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="J9" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="216" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="92.4" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="92.4" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="92.4" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="92.4" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="171.6" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K16" s="14"/>
     </row>

--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18971" windowHeight="14315"/>
+    <workbookView windowWidth="15348" windowHeight="13595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="debug_case" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -50,77 +50,55 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>0016</t>
+    <t>0001</t>
   </si>
   <si>
     <t>ysy_test</t>
   </si>
   <si>
-    <t>repair_007_favoriteAndTypes</t>
-  </si>
-  <si>
-    <t>报修类型</t>
-  </si>
-  <si>
-    <t>/api/v1/area/repair/favoriteAndTypes?userId=j::userId&amp;biotopeId=j::biotopeId</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"j::accessToken"}</t>
-  </si>
-  <si>
-    <t>biotopeId$$SELECT IFNULL(h.biotope_id,'biotope is null') FROM member_house_relationship mh 
-INNER JOIN pm_house h ON mh.`id_family_house` = h.`id`
-INNER JOIN `user` u ON mh.`id_user` = u.`id`
-WHERE u.`mobile` = '15828022852'
-AND mh.`is_default` = 'Y';</t>
+    <t>login_01_get_verifycode</t>
+  </si>
+  <si>
+    <t>获取验证码时无手机号</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994"}</t>
+  </si>
+  <si>
+    <t>请求参数错误</t>
+  </si>
+  <si>
+    <t>缺少签名参数</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>获取验证码时手机号为空</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?mobile=</t>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>正常获取验证码</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?mobile=c::tester_debug</t>
+  </si>
+  <si>
+    <t>data/verifyCode</t>
   </si>
   <si>
     <t>code": 0</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>login_01_get_verifycode</t>
-  </si>
-  <si>
-    <t>获取验证码时无手机号</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994"}</t>
-  </si>
-  <si>
-    <t>请求参数错误</t>
-  </si>
-  <si>
-    <t>缺少签名参数</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>获取验证码时手机号为空</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?mobile=</t>
-  </si>
-  <si>
-    <t>手机号不能为空</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>正常获取验证码</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?mobile=c::tester_debug</t>
-  </si>
-  <si>
-    <t>data/verifyCode</t>
   </si>
   <si>
     <t>0004</t>
@@ -236,6 +214,9 @@
     <t>/api/v1/family/house/list?userId=j::userId</t>
   </si>
   <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"j::accessToken"}</t>
+  </si>
+  <si>
     <t>select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
 where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
   </si>
@@ -308,6 +289,70 @@
   </si>
   <si>
     <t>isSupport": "Y</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>repair_007_favoriteAndTypes</t>
+  </si>
+  <si>
+    <t>报修类型</t>
+  </si>
+  <si>
+    <t>/api/v1/area/repair/favoriteAndTypes?userId=j::userId&amp;biotopeId=j::biotopeId</t>
+  </si>
+  <si>
+    <t>biotopeId$$SELECT IFNULL(h.biotope_id,'biotope is null') FROM member_house_relationship mh 
+INNER JOIN pm_house h ON mh.`id_family_house` = h.`id`
+INNER JOIN `user` u ON mh.`id_user` = u.`id`
+WHERE u.`mobile` = '15828022852'
+AND mh.`is_default` = 'Y';</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>yhz_test</t>
+  </si>
+  <si>
+    <t>yhz_001_log_in</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>/api/qhd/xapp/login</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8"}</t>
+  </si>
+  <si>
+    <t>data/token</t>
+  </si>
+  <si>
+    <t>{"phone":"c::tester_debug","captcha":"135246"}</t>
+  </si>
+  <si>
+    <t>status": 200</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>yhz_002_user_info</t>
+  </si>
+  <si>
+    <t>用户信息</t>
+  </si>
+  <si>
+    <t>/api/qhd/user/info</t>
+  </si>
+  <si>
+    <t>{"Authori-zation":"Bearer j::token"}</t>
+  </si>
+  <si>
+    <t>获取成功</t>
   </si>
 </sst>
 </file>
@@ -315,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -363,6 +408,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -387,15 +446,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,59 +522,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -477,21 +537,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -520,31 +565,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,151 +703,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,8 +762,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,41 +827,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,24 +848,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,10 +864,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,133 +876,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1370,13 +1415,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.44444444444444" style="3" customWidth="1"/>
@@ -1427,32 +1472,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="211.2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="2" customFormat="1" ht="14.4"/>
+    <row r="3" customFormat="1" ht="14.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1463,10 +1484,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1522,426 +1543,507 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10"/>
       <c r="J3" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10"/>
       <c r="J5" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L8" s="19"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="105.6" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="216" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="92.4" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="92.4" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="92.4" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="92.4" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="171.6" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" customFormat="1"/>
+    <row r="17" customFormat="1" ht="171.6" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="39.6" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="26.4" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15348" windowHeight="13595" activeTab="1"/>
+    <workbookView windowWidth="19404" windowHeight="13595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="debug_case" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -50,133 +50,22 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>0001</t>
+    <t>0009</t>
   </si>
   <si>
     <t>ysy_test</t>
   </si>
   <si>
-    <t>login_01_get_verifycode</t>
-  </si>
-  <si>
-    <t>获取验证码时无手机号</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?</t>
+    <t>invitation_003_bind_house</t>
+  </si>
+  <si>
+    <t>访客邀请--到访户号--缺少usierid</t>
+  </si>
+  <si>
+    <t>/api/v1/family/house/list?</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994"}</t>
-  </si>
-  <si>
-    <t>请求参数错误</t>
-  </si>
-  <si>
-    <t>缺少签名参数</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>获取验证码时手机号为空</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?mobile=</t>
-  </si>
-  <si>
-    <t>手机号不能为空</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>正常获取验证码</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?mobile=c::tester_debug</t>
-  </si>
-  <si>
-    <t>data/verifyCode</t>
-  </si>
-  <si>
-    <t>code": 0</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>正常获取验证码-一分钟内重复获取验证码</t>
-  </si>
-  <si>
-    <t>验证码一分钟内不能重复获取</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>login_02_log_in</t>
-  </si>
-  <si>
-    <t>登陆--无手机号</t>
-  </si>
-  <si>
-    <t>/api/v1/user/login</t>
-  </si>
-  <si>
-    <t>{"verifyCode":"j::verifyCode"}</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>登陆--无验证码</t>
-  </si>
-  <si>
-    <t>{"mobile":"c::tester_debug"}</t>
-  </si>
-  <si>
-    <t>验证码不能为空</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>登陆--过期验证码</t>
-  </si>
-  <si>
-    <t>{"mobile":"c::tester_debug","verifyCode":"1111"}</t>
-  </si>
-  <si>
-    <t>验证码不正确</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>登陆--正确验证码</t>
-  </si>
-  <si>
-    <t>data/userInfo/userId,data/accessToken</t>
-  </si>
-  <si>
-    <t>verifyCode$$SELECT IFNULL(vc.verify_code,'Get code error') FROM verify_code vc WHERE vc.mobile={0} ORDER BY vc.create_time DESC LIMIT 1format(c::tester_debug);</t>
-  </si>
-  <si>
-    <t>{"mobile":"c::tester_debug","verifyCode":"6688"}</t>
-  </si>
-  <si>
-    <t>accessToken</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>invitation_003_bind_house</t>
-  </si>
-  <si>
-    <t>访客邀请--到访户号--缺少usierid</t>
-  </si>
-  <si>
-    <t>/api/v1/family/house/list?</t>
   </si>
   <si>
     <r>
@@ -221,6 +110,117 @@
 where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
   </si>
   <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>login_01_get_verifycode</t>
+  </si>
+  <si>
+    <t>获取验证码时无手机号</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?</t>
+  </si>
+  <si>
+    <t>请求参数错误</t>
+  </si>
+  <si>
+    <t>缺少签名参数</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>获取验证码时手机号为空</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?mobile=</t>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>正常获取验证码</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?mobile=c::tester_debug</t>
+  </si>
+  <si>
+    <t>data/verifyCode</t>
+  </si>
+  <si>
+    <t>code": 0</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>正常获取验证码-一分钟内重复获取验证码</t>
+  </si>
+  <si>
+    <t>验证码一分钟内不能重复获取</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>login_02_log_in</t>
+  </si>
+  <si>
+    <t>登陆--无手机号</t>
+  </si>
+  <si>
+    <t>/api/v1/user/login</t>
+  </si>
+  <si>
+    <t>{"verifyCode":"j::verifyCode"}</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>登陆--无验证码</t>
+  </si>
+  <si>
+    <t>{"mobile":"c::tester_debug"}</t>
+  </si>
+  <si>
+    <t>验证码不能为空</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>登陆--过期验证码</t>
+  </si>
+  <si>
+    <t>{"mobile":"c::tester_debug","verifyCode":"1111"}</t>
+  </si>
+  <si>
+    <t>验证码不正确</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>登陆--正确验证码</t>
+  </si>
+  <si>
+    <t>data/userInfo/userId,data/accessToken</t>
+  </si>
+  <si>
+    <t>verifyCode$$SELECT IFNULL(vc.verify_code,'Get code error') FROM verify_code vc WHERE vc.mobile={0} ORDER BY vc.create_time DESC LIMIT 1format(c::tester_debug);</t>
+  </si>
+  <si>
+    <t>{"mobile":"c::tester_debug","verifyCode":"6688"}</t>
+  </si>
+  <si>
+    <t>accessToken</t>
+  </si>
+  <si>
     <t>0011</t>
   </si>
   <si>
@@ -308,6 +308,18 @@
 INNER JOIN `user` u ON mh.`id_user` = u.`id`
 WHERE u.`mobile` = '15828022852'
 AND mh.`is_default` = 'Y';</t>
+  </si>
+  <si>
+    <t>health_001_addMenberStep</t>
+  </si>
+  <si>
+    <t>添加成员步数</t>
+  </si>
+  <si>
+    <t>/api/v1/member/addMenberStep</t>
+  </si>
+  <si>
+    <t>{"stepNum":"8888","userId":"j::userId"}</t>
   </si>
   <si>
     <t>0017</t>
@@ -361,8 +373,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -401,6 +413,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -409,12 +451,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -446,22 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -469,8 +496,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,60 +549,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -565,187 +577,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,24 +768,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -816,6 +810,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -827,6 +830,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,17 +868,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -864,10 +876,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,133 +888,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1417,8 +1429,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="$A2:$XFD3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelRow="2"/>
@@ -1472,8 +1484,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="14.4"/>
-    <row r="3" customFormat="1" ht="14.4"/>
+    <row r="2" s="1" customFormat="1" ht="105.6" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="132" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1484,10 +1540,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1543,133 +1599,133 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="10"/>
       <c r="J3" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="10"/>
       <c r="J5" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>16</v>
@@ -1677,28 +1733,28 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>16</v>
@@ -1706,28 +1762,28 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>16</v>
@@ -1735,90 +1791,90 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L8" s="19"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="105.6" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="216" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="92.4" spans="1:11">
@@ -1838,7 +1894,7 @@
         <v>63</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>64</v>
@@ -1867,13 +1923,13 @@
         <v>63</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="92.4" spans="1:11">
@@ -1893,7 +1949,7 @@
         <v>73</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>64</v>
@@ -1922,13 +1978,13 @@
         <v>73</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="171.6" spans="1:11">
@@ -1948,7 +2004,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
@@ -1979,69 +2035,92 @@
         <v>86</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="39.6" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="92.4" spans="1:10">
       <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="39.6" spans="1:10">
+      <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H18"/>
-      <c r="I18" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" ht="26.4" spans="1:10">
-      <c r="A19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="I19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="20" customFormat="1" ht="26.4" spans="1:10">
+      <c r="A20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19" s="9" t="s">
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19404" windowHeight="13595" activeTab="1"/>
+    <workbookView windowWidth="21383" windowHeight="12768"/>
   </bookViews>
   <sheets>
-    <sheet name="debug_case" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="debug_case" sheetId="3" r:id="rId1"/>
+    <sheet name="case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -50,22 +50,133 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>ysy_test</t>
+  </si>
+  <si>
+    <t>login_01_get_verifycode</t>
+  </si>
+  <si>
+    <t>获取验证码时无手机号</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994"}</t>
+  </si>
+  <si>
+    <t>请求参数错误</t>
+  </si>
+  <si>
+    <t>缺少签名参数</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>获取验证码时手机号为空</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?mobile=</t>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>正常获取验证码</t>
+  </si>
+  <si>
+    <t>/api/v1/verifycode/getVerifyCode?mobile=c::tester_debug</t>
+  </si>
+  <si>
+    <t>data/verifyCode</t>
+  </si>
+  <si>
+    <t>code": 0</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>正常获取验证码-一分钟内重复获取验证码</t>
+  </si>
+  <si>
+    <t>验证码一分钟内不能重复获取</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>login_02_log_in</t>
+  </si>
+  <si>
+    <t>登陆--无手机号</t>
+  </si>
+  <si>
+    <t>/api/v1/user/login</t>
+  </si>
+  <si>
+    <t>{"verifyCode":"j::verifyCode"}</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>登陆--无验证码</t>
+  </si>
+  <si>
+    <t>{"mobile":"c::tester_debug"}</t>
+  </si>
+  <si>
+    <t>验证码不能为空</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>登陆--过期验证码</t>
+  </si>
+  <si>
+    <t>{"mobile":"c::tester_debug","verifyCode":"1111"}</t>
+  </si>
+  <si>
+    <t>验证码不正确</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>登陆--正确验证码</t>
+  </si>
+  <si>
+    <t>data/userInfo/userId,data/accessToken,data/ssoToken</t>
+  </si>
+  <si>
+    <t>verifyCode$$SELECT IFNULL(vc.verify_code,'Get code error') FROM verify_code vc WHERE vc.mobile={0} ORDER BY vc.create_time DESC LIMIT 1format(c::tester_debug);</t>
+  </si>
+  <si>
+    <t>{"mobile":"c::tester_debug","verifyCode":"6688"}</t>
+  </si>
+  <si>
+    <t>accessToken</t>
+  </si>
+  <si>
     <t>0009</t>
   </si>
   <si>
-    <t>ysy_test</t>
-  </si>
-  <si>
-    <t>invitation_003_bind_house</t>
+    <t>invitation_001_bind_house</t>
   </si>
   <si>
     <t>访客邀请--到访户号--缺少usierid</t>
   </si>
   <si>
     <t>/api/v1/family/house/list?</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994"}</t>
   </si>
   <si>
     <r>
@@ -110,121 +221,10 @@
 where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>login_01_get_verifycode</t>
-  </si>
-  <si>
-    <t>获取验证码时无手机号</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?</t>
-  </si>
-  <si>
-    <t>请求参数错误</t>
-  </si>
-  <si>
-    <t>缺少签名参数</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>获取验证码时手机号为空</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?mobile=</t>
-  </si>
-  <si>
-    <t>手机号不能为空</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>正常获取验证码</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode?mobile=c::tester_debug</t>
-  </si>
-  <si>
-    <t>data/verifyCode</t>
-  </si>
-  <si>
-    <t>code": 0</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>正常获取验证码-一分钟内重复获取验证码</t>
-  </si>
-  <si>
-    <t>验证码一分钟内不能重复获取</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>login_02_log_in</t>
-  </si>
-  <si>
-    <t>登陆--无手机号</t>
-  </si>
-  <si>
-    <t>/api/v1/user/login</t>
-  </si>
-  <si>
-    <t>{"verifyCode":"j::verifyCode"}</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>登陆--无验证码</t>
-  </si>
-  <si>
-    <t>{"mobile":"c::tester_debug"}</t>
-  </si>
-  <si>
-    <t>验证码不能为空</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>登陆--过期验证码</t>
-  </si>
-  <si>
-    <t>{"mobile":"c::tester_debug","verifyCode":"1111"}</t>
-  </si>
-  <si>
-    <t>验证码不正确</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>登陆--正确验证码</t>
-  </si>
-  <si>
-    <t>data/userInfo/userId,data/accessToken</t>
-  </si>
-  <si>
-    <t>verifyCode$$SELECT IFNULL(vc.verify_code,'Get code error') FROM verify_code vc WHERE vc.mobile={0} ORDER BY vc.create_time DESC LIMIT 1format(c::tester_debug);</t>
-  </si>
-  <si>
-    <t>{"mobile":"c::tester_debug","verifyCode":"6688"}</t>
-  </si>
-  <si>
-    <t>accessToken</t>
-  </si>
-  <si>
     <t>0011</t>
   </si>
   <si>
-    <t>invitation_004_getWaitVisitor</t>
+    <t>invitation_002_get_Wait_Visitor</t>
   </si>
   <si>
     <t>访客记录-待来访列表-缺少userid</t>
@@ -254,7 +254,7 @@
     <t>0013</t>
   </si>
   <si>
-    <t>invitation_005_getHistoryVisitor</t>
+    <t>invitation_003_get_History_Visitor</t>
   </si>
   <si>
     <t>访客记录--历史记录-缺少userid</t>
@@ -272,7 +272,7 @@
     <t>0015</t>
   </si>
   <si>
-    <t>invitation_006_invite_Visitor</t>
+    <t>invitation_004_invite_Visitor</t>
   </si>
   <si>
     <t>访客邀请--二维码邀请</t>
@@ -294,7 +294,7 @@
     <t>0016</t>
   </si>
   <si>
-    <t>repair_007_favoriteAndTypes</t>
+    <t>repair_001_favorite_And_Types</t>
   </si>
   <si>
     <t>报修类型</t>
@@ -365,6 +365,129 @@
   </si>
   <si>
     <t>获取成功</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>login_003_get_User_Privacy_Policy</t>
+  </si>
+  <si>
+    <t>登陆--隐私协议</t>
+  </si>
+  <si>
+    <t>/api/v1/user/getUserPrivacyPolicy?mobile=c::tester_debug</t>
+  </si>
+  <si>
+    <t>data": 2</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>/api/v1/user/getUserPrivacyPolicy?mobile</t>
+  </si>
+  <si>
+    <t>data": 1</t>
+  </si>
+  <si>
+    <t>当未登录过的用户，点击登录，这个时候data=1就是未同意，会主动弹出隐私协议</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>login_004_get_Member_Order</t>
+  </si>
+  <si>
+    <t>登陆--获取家人拖动顺序</t>
+  </si>
+  <si>
+    <t>/api/v1/family/member/getMemberOrder?userId=j::userId</t>
+  </si>
+  <si>
+    <t>data": [</t>
+  </si>
+  <si>
+    <t>获取首页家庭成员显示顺序</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>登陆--获取家人拖动顺序--缺少token</t>
+  </si>
+  <si>
+    <t>未做必填项判断</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>login_005_family_Info</t>
+  </si>
+  <si>
+    <t>/api/v1/user/familyInfo?userId=j::userId</t>
+  </si>
+  <si>
+    <t>c::tester_debug</t>
+  </si>
+  <si>
+    <t>家庭成员信息</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>access_token参数为空</t>
+  </si>
+  <si>
+    <t>缺少token</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>login_006_health_Plan</t>
+  </si>
+  <si>
+    <t>登陆--首页-健康计划</t>
+  </si>
+  <si>
+    <t>/api/v1/index/healthPlan/list</t>
+  </si>
+  <si>
+    <t>每天梳梳头，神清气爽精神好</t>
+  </si>
+  <si>
+    <t>现在内容是写死的三个</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>login_007_get_Not_Label_Family_User</t>
+  </si>
+  <si>
+    <t>登陆--获取成员标签</t>
+  </si>
+  <si>
+    <t>/api/v1/family/member/getNotLabelFamilyUser?</t>
+  </si>
+  <si>
+    <t>用户ID参数为空</t>
+  </si>
+  <si>
+    <t>无用户信息验证</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>/api/v1/family/member/getNotLabelFamilyUser?userId=j::userId</t>
+  </si>
+  <si>
+    <t>repair_007_favoriteAndTypes</t>
   </si>
 </sst>
 </file>
@@ -407,7 +530,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,22 +545,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,8 +558,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +577,14 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,15 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,8 +642,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,14 +672,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -577,187 +700,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,16 +895,42 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,23 +962,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,34 +986,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,10 +999,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,133 +1011,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1427,123 +1550,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="5.33333333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.44444444444444" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7777777777778" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1111111111111" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.2222222222222" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.3333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="105.6" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="132" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1599,133 +1609,133 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="10"/>
       <c r="J3" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="10"/>
       <c r="J5" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>16</v>
@@ -1733,28 +1743,28 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>16</v>
@@ -1762,28 +1772,28 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>16</v>
@@ -1791,90 +1801,90 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L8" s="19"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="105.6" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="216" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="92.4" spans="1:11">
@@ -1894,7 +1904,7 @@
         <v>63</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>64</v>
@@ -1923,13 +1933,13 @@
         <v>63</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="92.4" spans="1:11">
@@ -1949,7 +1959,7 @@
         <v>73</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>64</v>
@@ -1978,13 +1988,13 @@
         <v>73</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="171.6" spans="1:11">
@@ -2004,7 +2014,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
@@ -2035,13 +2045,13 @@
         <v>86</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="92.4" spans="1:10">
@@ -2061,14 +2071,14 @@
         <v>90</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
         <v>91</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="39.6" spans="1:10">
@@ -2122,9 +2132,1114 @@
       <c r="J20" s="9" t="s">
         <v>106</v>
       </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="72" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="J29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.4444444444444" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7777777777778" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.7777777777778" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="24" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="J5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="105.6" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="66" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="216" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="92.4" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="92.4" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="92.4" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="92.4" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="171.6" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" customFormat="1" ht="171.6" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="92.4" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="39.6" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="26.4" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="72" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="66" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="J29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21383" windowHeight="12768"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="debug_case" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -294,7 +294,7 @@
     <t>0016</t>
   </si>
   <si>
-    <t>repair_001_favorite_And_Types</t>
+    <t>repair_007_favoriteAndTypes</t>
   </si>
   <si>
     <t>报修类型</t>
@@ -310,6 +310,9 @@
 AND mh.`is_default` = 'Y';</t>
   </si>
   <si>
+    <t>0017</t>
+  </si>
+  <si>
     <t>health_001_addMenberStep</t>
   </si>
   <si>
@@ -322,7 +325,7 @@
     <t>{"stepNum":"8888","userId":"j::userId"}</t>
   </si>
   <si>
-    <t>0017</t>
+    <t>0018</t>
   </si>
   <si>
     <t>yhz_test</t>
@@ -349,7 +352,7 @@
     <t>status": 200</t>
   </si>
   <si>
-    <t>0018</t>
+    <t>0019</t>
   </si>
   <si>
     <t>yhz_002_user_info</t>
@@ -367,7 +370,7 @@
     <t>获取成功</t>
   </si>
   <si>
-    <t>0019</t>
+    <t>0020</t>
   </si>
   <si>
     <t>login_003_get_User_Privacy_Policy</t>
@@ -382,7 +385,7 @@
     <t>data": 2</t>
   </si>
   <si>
-    <t>0020</t>
+    <t>0021</t>
   </si>
   <si>
     <t>/api/v1/user/getUserPrivacyPolicy?mobile</t>
@@ -394,7 +397,7 @@
     <t>当未登录过的用户，点击登录，这个时候data=1就是未同意，会主动弹出隐私协议</t>
   </si>
   <si>
-    <t>0021</t>
+    <t>0022</t>
   </si>
   <si>
     <t>login_004_get_Member_Order</t>
@@ -412,7 +415,7 @@
     <t>获取首页家庭成员显示顺序</t>
   </si>
   <si>
-    <t>0022</t>
+    <t>0023</t>
   </si>
   <si>
     <t>登陆--获取家人拖动顺序--缺少token</t>
@@ -421,7 +424,7 @@
     <t>未做必填项判断</t>
   </si>
   <si>
-    <t>0023</t>
+    <t>0024</t>
   </si>
   <si>
     <t>login_005_family_Info</t>
@@ -436,7 +439,7 @@
     <t>家庭成员信息</t>
   </si>
   <si>
-    <t>0024</t>
+    <t>0025</t>
   </si>
   <si>
     <t>access_token参数为空</t>
@@ -445,7 +448,7 @@
     <t>缺少token</t>
   </si>
   <si>
-    <t>0025</t>
+    <t>0026</t>
   </si>
   <si>
     <t>login_006_health_Plan</t>
@@ -463,7 +466,7 @@
     <t>现在内容是写死的三个</t>
   </si>
   <si>
-    <t>0026</t>
+    <t>0027</t>
   </si>
   <si>
     <t>login_007_get_Not_Label_Family_User</t>
@@ -481,13 +484,85 @@
     <t>无用户信息验证</t>
   </si>
   <si>
-    <t>0027</t>
+    <t>0028</t>
   </si>
   <si>
     <t>/api/v1/family/member/getNotLabelFamilyUser?userId=j::userId</t>
   </si>
   <si>
-    <t>repair_007_favoriteAndTypes</t>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>login_008_family_house_list</t>
+  </si>
+  <si>
+    <t>获取房屋列表</t>
+  </si>
+  <si>
+    <t>/api/v1/family/house/list?userId=</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>login_009_update_Bind</t>
+  </si>
+  <si>
+    <t>设置默认房屋</t>
+  </si>
+  <si>
+    <t>/api/v1/family/house/updateBind?userId=j::userId</t>
+  </si>
+  <si>
+    <t>familyHouseId$$select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
+where u.mobile={0} AND mhr.is_valid='Y' LIMIT 1format(c::tester_debug);</t>
+  </si>
+  <si>
+    <t>{"familyHouseId":"j::familyHouseId","isDefault":"Y","mobile":"c::tester_debug","newFamilyHouseId":""}</t>
+  </si>
+  <si>
+    <t>/api/v1/family/house/updateBind?userId=</t>
+  </si>
+  <si>
+    <r>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能为空</t>
+    </r>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>{"familyHouseId":"","isDefault":"Y","mobile":"c::tester_debug","newFamilyHouseId":""}</t>
+  </si>
+  <si>
+    <t>房屋ID不能为空</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>{"familyHouseId":"j::familyHouseId","isDefault":"","mobile":"c::tester_debug","newFamilyHouseId":""}</t>
+  </si>
+  <si>
+    <t>是否设为默认房屋信息不能为空</t>
   </si>
 </sst>
 </file>
@@ -500,7 +575,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,8 +604,22 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,54 +632,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,7 +664,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,14 +731,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -657,20 +738,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -700,31 +787,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +817,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,31 +943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,66 +961,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -894,77 +981,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -986,8 +1008,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,10 +1095,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,137 +1107,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1289,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1201,6 +1300,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1550,10 +1652,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1600,10 +1702,10 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1748,7 +1850,7 @@
       <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A7" s="3" t="s">
@@ -1777,7 +1879,7 @@
       <c r="J7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A8" s="3" t="s">
@@ -1806,7 +1908,7 @@
       <c r="J8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="105.6" spans="1:12">
       <c r="A9" s="3" t="s">
@@ -1839,7 +1941,7 @@
       <c r="J9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A10" s="3" t="s">
@@ -2056,26 +2158,26 @@
     </row>
     <row r="18" customFormat="1" ht="92.4" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>27</v>
@@ -2083,71 +2185,71 @@
     </row>
     <row r="19" customFormat="1" ht="39.6" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="26.4" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>16</v>
@@ -2155,25 +2257,25 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="J21" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="72" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>16</v>
@@ -2181,28 +2283,28 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="J22" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="92.4" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>58</v>
@@ -2210,28 +2312,28 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="J23" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>16</v>
@@ -2239,28 +2341,28 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="J24" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="92.4" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>58</v>
@@ -2268,28 +2370,28 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="J25" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>16</v>
@@ -2297,86 +2399,86 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="J26" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="19"/>
+        <v>133</v>
+      </c>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="39.6" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="J27" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="39.6" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="J28" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L28" s="19"/>
+        <v>145</v>
+      </c>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="92.4" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>58</v>
@@ -2384,10 +2486,184 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="J29" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K29" s="9"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="J30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="J31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="132.75" spans="1:11">
+      <c r="A32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="132" spans="1:11">
+      <c r="A33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" ht="132" spans="1:10">
+      <c r="A34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" ht="132" spans="1:10">
+      <c r="A35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2398,10 +2674,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2448,10 +2724,10 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2596,7 +2872,7 @@
       <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A7" s="3" t="s">
@@ -2625,7 +2901,7 @@
       <c r="J7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A8" s="3" t="s">
@@ -2654,7 +2930,7 @@
       <c r="J8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="105.6" spans="1:12">
       <c r="A9" s="3" t="s">
@@ -2687,7 +2963,7 @@
       <c r="J9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A10" s="3" t="s">
@@ -2884,7 +3160,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>85</v>
@@ -2904,26 +3180,26 @@
     </row>
     <row r="18" customFormat="1" ht="92.4" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>27</v>
@@ -2931,71 +3207,71 @@
     </row>
     <row r="19" customFormat="1" ht="39.6" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="26.4" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>16</v>
@@ -3003,25 +3279,25 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="J21" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="72" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>16</v>
@@ -3029,28 +3305,28 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="J22" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="92.4" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>58</v>
@@ -3058,28 +3334,28 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="J23" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>16</v>
@@ -3087,28 +3363,28 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="J24" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="92.4" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>58</v>
@@ -3116,28 +3392,28 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="J25" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>16</v>
@@ -3145,86 +3421,86 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="J26" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="19"/>
+        <v>133</v>
+      </c>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="39.6" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="J27" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="39.6" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="J28" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L28" s="19"/>
+        <v>145</v>
+      </c>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="92.4" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>58</v>
@@ -3232,10 +3508,67 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="J29" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K29" s="9"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="J30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="132" spans="1:11">
+      <c r="A31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23436" windowHeight="12995"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="debug_case" sheetId="3" r:id="rId1"/>
+    <sheet name="test_case" sheetId="3" r:id="rId1"/>
     <sheet name="debug" sheetId="5" r:id="rId2"/>
     <sheet name="case" sheetId="2" r:id="rId3"/>
     <sheet name="暂不执行用例" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -620,36 +620,36 @@
     <t>0036</t>
   </si>
   <si>
+    <t>home_002_topic</t>
+  </si>
+  <si>
+    <t>首页--话题专栏--缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/topic?userId=&amp;typeId=&amp;pageSize=5&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(t.topic_title,'query data is error') FROM topic t WHERE t.is_valid = 'Y' ORDER BY t.create_time DESC LIMIT 1;</t>
+  </si>
+  <si>
+    <t>userid是非必填项</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>首页--话题专栏</t>
+  </si>
+  <si>
+    <t>/api/v1/topic?userId=j::userId&amp;typeId=&amp;pageSize=5&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
     <t>home_003_login_Score</t>
   </si>
   <si>
-    <t>首页--话题专栏--缺少userid</t>
-  </si>
-  <si>
-    <t>/api/v1/topic?userId=&amp;typeId=&amp;pageSize=5&amp;pageNo=1</t>
-  </si>
-  <si>
-    <t>SELECT IFNULL(t.topic_title,'query data is error') FROM topic t
-WHERE t.is_valid = 'Y'
-ORDER BY t.create_time DESC
-LIMIT 1;</t>
-  </si>
-  <si>
-    <t>userid是非必填项</t>
-  </si>
-  <si>
-    <t>0037</t>
-  </si>
-  <si>
-    <t>首页--话题专栏</t>
-  </si>
-  <si>
-    <t>/api/v1/topic?userId=j::userId&amp;typeId=&amp;pageSize=5&amp;pageNo=1</t>
-  </si>
-  <si>
-    <t>0038</t>
-  </si>
-  <si>
     <t>首页--每日登陆获取积分--缺少userid</t>
   </si>
   <si>
@@ -666,6 +666,138 @@
   </si>
   <si>
     <t>/api/v1/user/loginScore?userId=j::userId</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>home_004_update_Locate_City</t>
+  </si>
+  <si>
+    <t>首页--更新城市--缺少城市</t>
+  </si>
+  <si>
+    <t>/api/v1/user/updateLocateCity?cityName=&amp;userId=j::userId</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>首页--更新城市--缺少uerid</t>
+  </si>
+  <si>
+    <t>/api/v1/user/updateLocateCity?cityName=成都&amp;userId=</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>首页--更新城市</t>
+  </si>
+  <si>
+    <t>/api/v1/user/updateLocateCity?cityName=成都&amp;userId=j::userId</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>tysy_o2o</t>
+  </si>
+  <si>
+    <t>home_005_hot_product</t>
+  </si>
+  <si>
+    <t>首页--热门商品</t>
+  </si>
+  <si>
+    <t>/appapi.php?g=appapi&amp;c=Tfapi&amp;a=get_goods_list&amp;pageNo=1&amp;PageSize=10</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(`g`.`name`, 'query is error') FROM pigcms_merchant_store s INNER JOIN pigcms_merchant_store_shop sh ON (`s`.`status` = 1 AND `s`.`have_shop` = 1 AND `s`.`store_id` = `sh`.`store_id`) INNER JOIN pigcms_shop_goods g ON `sh`.`store_id` = `g`.`store_id` WHERE (`g`.`status` = 1 AND `g`.`index_sort` &gt; 0 AND `g`.`cat_fid` &gt; 0 AND `sh`.`store_theme` = ' 1' AND `g`.`jd_sku_id` = 0 AND (g.show_start_time = g.show_end_time OR (unix_timestamp(concat('2020/09/25', ' ', g.show_start_time)) &lt;= 1601020071 AND unix_timestamp(concat('2020/09/25', ' ', g.show_end_time)) &gt;= 1601020071))) LIMIT 0, 1;</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>myself_001_get_my_three_info</t>
+  </si>
+  <si>
+    <t>我的-获取某用户 积分，购物车，商家收藏 数量</t>
+  </si>
+  <si>
+    <t>/appapi.php?g=appapi&amp;c=Tfapi&amp;a=get_my_three_info&amp;ticket=j::ssoToken&amp;Device_Id=</t>
+  </si>
+  <si>
+    <t>SELECT CONCAT('cart_count": ',IFNULL(pu.score_count,'query is error')) from pigcms_user pu WHERE pu.phone = {0}format(c::tester_debug);</t>
+  </si>
+  <si>
+    <t>注意这里的ticket就是取的ssotoken值，重新登录会变化</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>我的-获取某用户 积分，购物车，商家收藏 数量--缺少ssotoken</t>
+  </si>
+  <si>
+    <t>/appapi.php?g=appapi&amp;c=Tfapi&amp;a=get_my_three_info&amp;&amp;Device_Id=</t>
+  </si>
+  <si>
+    <t>请登录</t>
+  </si>
+  <si>
+    <t>提示语建议：登陆异常，请重新登录</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>myself_002_member_list</t>
+  </si>
+  <si>
+    <t>我的--个人信息</t>
+  </si>
+  <si>
+    <t>/api/v1/family/member/list?userId=126962032ae84dcd9bcb08d9001d89a7</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>/api/v1/family/member/list?userId=j::userId</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(u.nick_name,'query is error') from `user` u WHERE u.mobile='{0}'format(c::tester_debug);</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>我的--个人信息--缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/family/member/list?userId=</t>
+  </si>
+  <si>
+    <t>login_010_versionInfo_android</t>
+  </si>
+  <si>
+    <t>获取安卓版本信息</t>
+  </si>
+  <si>
+    <t>/api/v1/system/versionInfo?code=android</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(dv.version,0) FROM data_version dv WHERE dv.code='android';</t>
+  </si>
+  <si>
+    <t>login_011_versionInfo_ios</t>
+  </si>
+  <si>
+    <t>/api/v1/system/versionInfo?code=ios</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(dv.version,0) FROM data_version dv WHERE dv.code='ios';</t>
   </si>
   <si>
     <t>0001</t>
@@ -731,12 +863,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,16 +910,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="7.2"/>
-      <color rgb="FF008080"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -797,9 +922,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF008080"/>
+      <color theme="1" tint="0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -810,6 +942,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -835,25 +973,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,17 +987,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -896,29 +1019,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -942,7 +1073,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,7 +1088,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,7 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1151,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,61 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,43 +1241,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,13 +1271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,11 +1369,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,6 +1389,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,32 +1427,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1297,10 +1435,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1309,137 +1447,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,9 +1671,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,6 +1704,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1590,13 +1728,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1947,17 +2088,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F32" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.77777777777778" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.77777777777778" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.77777777777778" style="32" customWidth="1"/>
     <col min="4" max="4" width="16.4444444444444" style="22" customWidth="1"/>
     <col min="5" max="5" width="15.4444444444444" style="22" customWidth="1"/>
     <col min="6" max="6" width="27.5555555555556" style="22" customWidth="1"/>
@@ -1965,7 +2106,7 @@
     <col min="8" max="8" width="10.4444444444444" style="22" customWidth="1"/>
     <col min="9" max="9" width="40" style="22" customWidth="1"/>
     <col min="10" max="10" width="15.7777777777778" style="22" customWidth="1"/>
-    <col min="11" max="11" width="16.4444444444444" style="22" customWidth="1"/>
+    <col min="11" max="11" width="49" style="22" customWidth="1"/>
     <col min="12" max="13" width="15.7777777777778" style="22" customWidth="1"/>
     <col min="14" max="16384" width="8.88888888888889" style="22"/>
   </cols>
@@ -1977,28 +2118,28 @@
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="47" t="s">
@@ -2022,17 +2163,17 @@
       <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="16" t="s">
         <v>19</v>
       </c>
@@ -2052,17 +2193,17 @@
       <c r="D3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="16" t="s">
         <v>23</v>
       </c>
@@ -2082,17 +2223,17 @@
       <c r="D4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="16" t="s">
         <v>27</v>
       </c>
@@ -2112,19 +2253,19 @@
       <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="16" t="s">
@@ -2154,14 +2295,14 @@
       <c r="F6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" s="16" customFormat="1" ht="216" spans="1:11">
+    <row r="7" s="16" customFormat="1" ht="92.4" spans="1:11">
       <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
@@ -2180,7 +2321,7 @@
       <c r="F7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -2209,7 +2350,7 @@
       <c r="F8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="16"/>
@@ -2241,7 +2382,7 @@
       <c r="F9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="16"/>
@@ -2275,7 +2416,7 @@
       <c r="F10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="16" t="s">
@@ -2307,7 +2448,7 @@
       <c r="F11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="16" t="s">
@@ -2336,7 +2477,7 @@
       <c r="F12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="16" t="s">
@@ -2368,7 +2509,7 @@
       <c r="F13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>43</v>
       </c>
       <c r="J13" s="16" t="s">
@@ -2397,7 +2538,7 @@
       <c r="F14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="40" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="16"/>
@@ -2410,7 +2551,7 @@
       </c>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" s="32" customFormat="1" ht="39.6" spans="1:11">
+    <row r="15" s="31" customFormat="1" ht="39.6" spans="1:11">
       <c r="A15" s="15" t="s">
         <v>80</v>
       </c>
@@ -2429,7 +2570,7 @@
       <c r="F15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="16"/>
@@ -2437,7 +2578,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" s="32" customFormat="1" ht="39.6" spans="1:11">
+    <row r="16" s="31" customFormat="1" ht="39.6" spans="1:11">
       <c r="A16" s="15" t="s">
         <v>84</v>
       </c>
@@ -2456,18 +2597,18 @@
       <c r="F16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="31" t="s">
         <v>88</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" s="32" customFormat="1" ht="39.6" spans="1:11">
+    <row r="17" s="31" customFormat="1" ht="39.6" spans="1:11">
       <c r="A17" s="15" t="s">
         <v>89</v>
       </c>
@@ -2499,7 +2640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" s="32" customFormat="1" ht="13.2" spans="1:11">
+    <row r="18" s="31" customFormat="1" ht="13.2" spans="1:11">
       <c r="A18" s="15" t="s">
         <v>98</v>
       </c>
@@ -2538,17 +2679,17 @@
       <c r="D19" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
       <c r="K19" s="19" t="s">
         <v>108</v>
       </c>
@@ -2567,17 +2708,17 @@
       <c r="D20" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
       <c r="K20" s="19" t="s">
         <v>111</v>
       </c>
@@ -2599,17 +2740,17 @@
       <c r="D21" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
       <c r="K21" s="19" t="s">
         <v>117</v>
       </c>
@@ -2631,17 +2772,17 @@
       <c r="D22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="K22" s="19" t="s">
         <v>117</v>
       </c>
@@ -2663,17 +2804,17 @@
       <c r="D23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
       <c r="K23" s="19" t="s">
         <v>125</v>
       </c>
@@ -2695,17 +2836,17 @@
       <c r="D24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
       <c r="K24" s="19" t="s">
         <v>128</v>
       </c>
@@ -2727,17 +2868,17 @@
       <c r="D25" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
       <c r="K25" s="19" t="s">
         <v>134</v>
       </c>
@@ -2759,17 +2900,17 @@
       <c r="D26" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
       <c r="K26" s="19" t="s">
         <v>51</v>
       </c>
@@ -2791,17 +2932,17 @@
       <c r="D27" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
       <c r="K27" s="19" t="s">
         <v>125</v>
       </c>
@@ -2827,15 +2968,15 @@
       <c r="F28" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="41"/>
+      <c r="H28" s="40"/>
       <c r="K28" s="17" t="s">
         <v>51</v>
       </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="41"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" s="16" customFormat="1" ht="39.6" spans="1:13">
       <c r="A29" s="15" t="s">
@@ -2856,15 +2997,15 @@
       <c r="F29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="41"/>
+      <c r="H29" s="40"/>
       <c r="K29" s="17" t="s">
         <v>57</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="41"/>
+      <c r="M29" s="40"/>
     </row>
     <row r="30" s="22" customFormat="1" ht="93.15" spans="1:12">
       <c r="A30" s="15" t="s">
@@ -2885,10 +3026,10 @@
       <c r="F30" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="41"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="16" t="s">
         <v>152</v>
       </c>
@@ -2919,10 +3060,10 @@
       <c r="F31" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="41"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="16" t="s">
         <v>152</v>
       </c>
@@ -2953,10 +3094,10 @@
       <c r="F32" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="41"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="16" t="s">
         <v>152</v>
       </c>
@@ -2986,10 +3127,10 @@
       <c r="F33" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="41"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="16" t="s">
         <v>152</v>
       </c>
@@ -3010,7 +3151,7 @@
       <c r="C34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="22" t="s">
@@ -3019,7 +3160,7 @@
       <c r="F34" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="41" t="s">
         <v>43</v>
       </c>
       <c r="K34" s="51" t="s">
@@ -3039,7 +3180,7 @@
       <c r="C35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E35" s="22" t="s">
@@ -3048,7 +3189,7 @@
       <c r="F35" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="41" t="s">
         <v>43</v>
       </c>
       <c r="K35" s="51" t="s">
@@ -3068,7 +3209,7 @@
       <c r="C36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -3077,7 +3218,7 @@
       <c r="F36" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="41" t="s">
         <v>43</v>
       </c>
       <c r="K36" s="46" t="s">
@@ -3087,7 +3228,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" ht="144" spans="1:12">
+    <row r="37" ht="39.6" spans="1:12">
       <c r="A37" s="15" t="s">
         <v>173</v>
       </c>
@@ -3097,7 +3238,7 @@
       <c r="C37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>174</v>
       </c>
       <c r="E37" s="22" t="s">
@@ -3106,7 +3247,7 @@
       <c r="F37" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="40" t="s">
         <v>43</v>
       </c>
       <c r="K37" s="22" t="s">
@@ -3116,7 +3257,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" ht="144.75" spans="1:11">
+    <row r="38" s="22" customFormat="1" ht="40.35" spans="1:11">
       <c r="A38" s="15" t="s">
         <v>179</v>
       </c>
@@ -3135,7 +3276,7 @@
       <c r="F38" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G38" s="41" t="s">
+      <c r="G38" s="40" t="s">
         <v>43</v>
       </c>
       <c r="K38" s="22" t="s">
@@ -3153,13 +3294,13 @@
         <v>29</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G39" s="46" t="s">
         <v>43</v>
@@ -3168,12 +3309,12 @@
         <v>51</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" s="23" customFormat="1" ht="36" spans="1:11">
       <c r="A40" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>14</v>
@@ -3182,19 +3323,247 @@
         <v>29</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G40" s="46" t="s">
         <v>43</v>
       </c>
       <c r="K40" s="46" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="41" s="23" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A41" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" s="23" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A42" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" s="23" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A43" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" s="22" customFormat="1" ht="168" spans="1:11">
+      <c r="A44" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="40"/>
+      <c r="K44" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" s="22" customFormat="1" ht="48" spans="1:13">
+      <c r="A45" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="K45" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" s="22" customFormat="1" ht="48" spans="1:13">
+      <c r="A46" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="40"/>
+      <c r="K46" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" ht="36" spans="1:6">
+      <c r="A47" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" s="22" customFormat="1" ht="40.35" spans="1:11">
+      <c r="A48" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" s="22" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A49" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="53" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3209,26 +3578,27 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9" style="23" customWidth="1"/>
     <col min="2" max="2" width="9.77777777777778" style="23" customWidth="1"/>
-    <col min="3" max="4" width="16.4444444444444" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" style="23" customWidth="1"/>
     <col min="5" max="5" width="15.4444444444444" style="23" customWidth="1"/>
     <col min="6" max="6" width="27.5555555555556" style="23" customWidth="1"/>
     <col min="7" max="7" width="51.6666666666667" style="23" customWidth="1"/>
     <col min="8" max="8" width="10.4444444444444" style="23" customWidth="1"/>
     <col min="9" max="9" width="40" style="23" customWidth="1"/>
     <col min="10" max="10" width="15.7777777777778" style="23" customWidth="1"/>
-    <col min="11" max="11" width="16.4444444444444" style="23" customWidth="1"/>
+    <col min="11" max="11" width="39" style="23" customWidth="1"/>
     <col min="12" max="13" width="15.7777777777778" style="23" customWidth="1"/>
     <col min="14" max="16384" width="8.88888888888889" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="24.75" spans="1:13">
+    <row r="1" s="21" customFormat="1" ht="24" spans="1:13">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3269,9 +3639,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="22" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A2" s="22">
-        <v>2</v>
+    <row r="2" s="22" customFormat="1" ht="36" spans="1:11">
+      <c r="A2" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>14</v>
@@ -3280,27 +3650,22 @@
         <v>29</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" ht="39.6" spans="1:11">
-      <c r="A3" s="22">
-        <v>3</v>
+        <v>229</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="K2" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" s="22" customFormat="1" ht="24" spans="1:11">
+      <c r="A3" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>14</v>
@@ -3309,19 +3674,17 @@
         <v>29</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>57</v>
+        <v>232</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="K3" s="22" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3335,8 +3698,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3392,47 +3755,47 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="8" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>18</v>
@@ -3442,65 +3805,65 @@
         <v>20</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>57</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="66" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L5" s="10"/>
     </row>
@@ -3819,7 +4182,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>82</v>
@@ -3831,7 +4194,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
@@ -4284,47 +4647,47 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="184.8" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="8" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="184.8" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>18</v>
@@ -4334,65 +4697,65 @@
         <v>20</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="184.8" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>57</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="184.8" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L5" s="10"/>
     </row>

--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="302">
   <si>
     <t>ID</t>
   </si>
@@ -117,11 +117,11 @@
   </si>
   <si>
     <t>houseId$$select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
-where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
+where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::release_user);</t>
   </si>
   <si>
     <t>select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
-where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::tester_debug);</t>
+where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::release_user);</t>
   </si>
   <si>
     <t>0007</t>
@@ -178,7 +178,7 @@
 INNER JOIN pm_house h ON mh.`id_family_house` = h.`id`
 INNER JOIN `user` u ON mh.`id_user` = u.`id`
 WHERE u.`mobile` ={0}
-AND mh.`is_default` = 'Y'format(c::tester_debug);</t>
+AND mh.`is_default` = 'Y'format(c::release_user);</t>
   </si>
   <si>
     <t>code": 0</t>
@@ -280,7 +280,7 @@
     <t>data/token</t>
   </si>
   <si>
-    <t>{"phone":"c::tester_debug","captcha":"135246"}</t>
+    <t>{"phone":"c::release_user","captcha":"135246"}</t>
   </si>
   <si>
     <t>status": 200</t>
@@ -449,10 +449,10 @@
   </si>
   <si>
     <t>familyHouseId$$select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
-where u.mobile={0} AND mhr.is_valid='Y' LIMIT 1format(c::tester_debug);</t>
-  </si>
-  <si>
-    <t>{"familyHouseId":"j::familyHouseId","isDefault":"Y","mobile":"c::tester_debug","newFamilyHouseId":""}</t>
+where u.mobile={0} AND mhr.is_valid='Y' LIMIT 1format(c::release_user);</t>
+  </si>
+  <si>
+    <t>{"familyHouseId":"j::familyHouseId","isDefault":"Y","mobile":"c::release_user","newFamilyHouseId":""}</t>
   </si>
   <si>
     <t>0030</t>
@@ -493,7 +493,7 @@
     <t>0031</t>
   </si>
   <si>
-    <t>{"familyHouseId":"","isDefault":"Y","mobile":"c::tester_debug","newFamilyHouseId":""}</t>
+    <t>{"familyHouseId":"","isDefault":"Y","mobile":"c::release_user","newFamilyHouseId":""}</t>
   </si>
   <si>
     <t>房屋ID不能为空</t>
@@ -502,7 +502,7 @@
     <t>0032</t>
   </si>
   <si>
-    <t>{"familyHouseId":"j::familyHouseId","isDefault":"","mobile":"c::tester_debug","newFamilyHouseId":""}</t>
+    <t>{"familyHouseId":"j::familyHouseId","isDefault":"","mobile":"c::release_user","newFamilyHouseId":""}</t>
   </si>
   <si>
     <t>是否设为默认房屋信息不能为空</t>
@@ -661,7 +661,7 @@
     <t>/appapi.php?g=appapi&amp;c=Tfapi&amp;a=get_my_three_info&amp;ticket=j::ssoToken&amp;Device_Id=</t>
   </si>
   <si>
-    <t>SELECT CONCAT('cart_count": ',IFNULL(pu.score_count,'query is error')) from pigcms_user pu WHERE pu.phone = {0}format(c::tester_debug);</t>
+    <t>SELECT CONCAT('cart_count": ',IFNULL(pu.score_count,'query is error')) from pigcms_user pu WHERE pu.phone = {0}format(c::release_user);</t>
   </si>
   <si>
     <t>注意这里的ticket就是取的ssotoken值，重新登录会变化</t>
@@ -700,7 +700,7 @@
     <t>/api/v1/family/member/list?userId=c::releaser_userId</t>
   </si>
   <si>
-    <t>SELECT IFNULL(u.nick_name,'query is error') from `user` u WHERE u.mobile='{0}'format(c::tester_debug);</t>
+    <t>SELECT IFNULL(u.nick_name,'query is error') from `user` u WHERE u.mobile='{0}'format(c::release_user);</t>
   </si>
   <si>
     <t>0048</t>
@@ -841,6 +841,9 @@
     <t>0059</t>
   </si>
   <si>
+    <t>ysy_o2o</t>
+  </si>
+  <si>
     <t>mall_001_mall_index</t>
   </si>
   <si>
@@ -860,6 +863,48 @@
   </si>
   <si>
     <t>/mall/index.html?</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>myself_001_user_info</t>
+  </si>
+  <si>
+    <t>我的--首页--获取用户信息</t>
+  </si>
+  <si>
+    <t>/api/v1/user/info?userId=c::releaser_userId&amp;userLevel=j::userLevel</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"c::releaser_accesstoken","ssoToken":"j::ssoToken"}</t>
+  </si>
+  <si>
+    <t>userLevel$$select IFNULL(ul.level_rank,'query is error') from user u LEFT JOIN user_level ul ON u.id_user_level = ul.id where u.mobile = '{0}'format(c::release_user);</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(u.nick_name,'query is error') from user u WHERE u.mobile = '{0}'format(c::release_user);</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>我的--首页--获取用户信息--缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/user/info?userId=&amp;userLevel=j::userLevel</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>我的--首页--获取用户信息--缺少userlevel</t>
+  </si>
+  <si>
+    <t>/api/v1/user/info?userId=c::releaser_userId&amp;userLevel=</t>
+  </si>
+  <si>
+    <t>userLevel不是必填项</t>
   </si>
   <si>
     <t>0003</t>
@@ -1010,6 +1055,18 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1038,18 +1095,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1063,12 +1108,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1077,7 +1123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,7 +1138,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,6 +1152,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1114,15 +1184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1158,14 +1220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1176,7 +1230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,23 +1238,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,7 +1284,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,109 +1452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,61 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,69 +1484,6 @@
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1535,7 +1517,70 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1547,10 +1592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1559,133 +1604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1768,6 +1813,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,38 +1846,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1831,7 +1876,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2194,19 +2239,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.77777777777778" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.77777777777778" style="27" customWidth="1"/>
+    <col min="3" max="3" width="9.77777777777778" style="30" customWidth="1"/>
     <col min="4" max="4" width="16.4444444444444" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.4444444444444" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.5555555555556" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.5555555555556" style="4" customWidth="1"/>
     <col min="7" max="7" width="51.6666666666667" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.4444444444444" style="4" customWidth="1"/>
@@ -2224,28 +2269,28 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="45" t="s">
@@ -2501,7 +2546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" s="26" customFormat="1" ht="39.6" spans="1:11">
+    <row r="10" s="29" customFormat="1" ht="39.6" spans="1:11">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -2528,7 +2573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="26" customFormat="1" ht="39.6" spans="1:11">
+    <row r="11" s="29" customFormat="1" ht="39.6" spans="1:11">
       <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
@@ -2551,14 +2596,14 @@
         <v>24</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="29" t="s">
         <v>62</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" s="26" customFormat="1" ht="39.6" spans="1:11">
+    <row r="12" s="29" customFormat="1" ht="39.6" spans="1:11">
       <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
@@ -2590,7 +2635,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" s="26" customFormat="1" ht="13.2" spans="1:11">
+    <row r="13" s="29" customFormat="1" ht="13.2" spans="1:11">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -3101,7 +3146,7 @@
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="36" t="s">
         <v>138</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -3110,7 +3155,7 @@
       <c r="F29" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="36" t="s">
         <v>24</v>
       </c>
       <c r="K29" s="48" t="s">
@@ -3130,7 +3175,7 @@
       <c r="C30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="36" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3139,7 +3184,7 @@
       <c r="F30" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="36" t="s">
         <v>24</v>
       </c>
       <c r="K30" s="48" t="s">
@@ -3159,7 +3204,7 @@
       <c r="C31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="36" t="s">
         <v>138</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -3168,10 +3213,10 @@
       <c r="F31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="38" t="s">
+      <c r="K31" s="41" t="s">
         <v>37</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -3188,7 +3233,7 @@
       <c r="C32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="37" t="s">
         <v>152</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3217,7 +3262,7 @@
       <c r="C33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="38" t="s">
         <v>152</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -3240,10 +3285,10 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>161</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3252,7 +3297,7 @@
       <c r="F34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="41" t="s">
         <v>24</v>
       </c>
       <c r="K34" s="49" t="s">
@@ -3269,10 +3314,10 @@
       <c r="B35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="37" t="s">
+      <c r="C35" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>161</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3281,10 +3326,10 @@
       <c r="F35" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="38" t="s">
+      <c r="K35" s="41" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3298,7 +3343,7 @@
       <c r="C36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="40" t="s">
         <v>169</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -3324,7 +3369,7 @@
       <c r="C37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="40" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -3350,7 +3395,7 @@
       <c r="C38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="40" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3376,7 +3421,7 @@
       <c r="C39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="37" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -3400,7 +3445,7 @@
       <c r="C40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="37" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -3427,7 +3472,7 @@
       <c r="C41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="37" t="s">
         <v>185</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -3454,7 +3499,7 @@
       <c r="C42" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="37" t="s">
         <v>196</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -3480,7 +3525,7 @@
       <c r="C43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="37" t="s">
         <v>196</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -3506,7 +3551,7 @@
       <c r="C44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="37" t="s">
         <v>196</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3532,7 +3577,7 @@
       <c r="C45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -3556,7 +3601,7 @@
       <c r="C46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="42" t="s">
         <v>210</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -3580,7 +3625,7 @@
       <c r="C47" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="37" t="s">
         <v>214</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -3609,7 +3654,7 @@
       <c r="C48" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="37" t="s">
         <v>214</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -3638,7 +3683,7 @@
       <c r="C49" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="37" t="s">
         <v>214</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -3664,16 +3709,16 @@
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="44" t="s">
         <v>228</v>
       </c>
       <c r="G50" s="21" t="s">
@@ -3693,16 +3738,16 @@
       <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="41" t="s">
+      <c r="C51" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="44" t="s">
         <v>232</v>
       </c>
       <c r="G51" s="21" t="s">
@@ -3720,16 +3765,16 @@
       <c r="B52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="41" t="s">
+      <c r="C52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="28" t="s">
         <v>237</v>
       </c>
       <c r="G52" s="21" t="s">
@@ -3747,16 +3792,16 @@
       <c r="B53" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="41" t="s">
+      <c r="C53" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="28" t="s">
         <v>241</v>
       </c>
       <c r="G53" s="21" t="s">
@@ -3777,16 +3822,16 @@
       <c r="B54" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="41" t="s">
+      <c r="C54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="28" t="s">
         <v>245</v>
       </c>
       <c r="G54" s="21" t="s">
@@ -3804,53 +3849,143 @@
         <v>247</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="C55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="E55" s="28" t="s">
         <v>250</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>251</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="3"/>
       <c r="K55" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" s="16" customFormat="1" ht="39.6" spans="1:11">
       <c r="A56" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="E56" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" s="41" t="s">
+      <c r="C56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="28" t="s">
         <v>254</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>255</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="3"/>
       <c r="K56" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" s="16" customFormat="1" ht="52.8" spans="1:11">
+      <c r="A57" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" s="16" customFormat="1" ht="52.8" spans="1:11">
+      <c r="A58" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" s="16" customFormat="1" ht="52.8" spans="1:12">
+      <c r="A59" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3862,19 +3997,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.77777777777778" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.4444444444444" style="6" customWidth="1"/>
     <col min="4" max="5" width="19.7777777777778" style="5" customWidth="1"/>
-    <col min="6" max="6" width="77.1111111111111" style="5" customWidth="1"/>
+    <col min="6" max="6" width="37.4444444444444" style="5" customWidth="1"/>
     <col min="7" max="7" width="51.6666666666667" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.4444444444444" style="5" customWidth="1"/>
     <col min="9" max="9" width="40" style="5" customWidth="1"/>
@@ -3925,93 +4060,98 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" ht="39.6" spans="1:11">
+    <row r="2" s="16" customFormat="1" ht="52.8" spans="1:11">
       <c r="A2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" s="26" customFormat="1" ht="13.2" spans="1:11">
+        <v>256</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" s="16" customFormat="1" ht="52.8" spans="1:11">
       <c r="A3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="K3" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="13.2" spans="1:13">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+        <v>256</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="16" customFormat="1" ht="52.8" spans="1:12">
+      <c r="A4" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4087,51 +4227,50 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="48" spans="1:13">
       <c r="A2" s="12" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="14" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M2" s="17"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="26.4" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="18" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>19</v>
@@ -4139,30 +4278,29 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>282</v>
+      </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="26.4" spans="1:13">
       <c r="A4" s="13" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="18" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>19</v>
@@ -4170,30 +4308,29 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="3" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>286</v>
+      </c>
       <c r="M4" s="25"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="39.6" spans="1:13">
       <c r="A5" s="13" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="18" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>19</v>
@@ -4201,51 +4338,50 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="L5" s="3"/>
+        <v>289</v>
+      </c>
       <c r="M5" s="25"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="66" spans="1:13">
       <c r="A6" s="13" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="18" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M6" s="25"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="171.6" spans="1:12">
       <c r="A7" s="13" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -4254,13 +4390,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>24</v>
@@ -4268,10 +4404,10 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L7" s="3"/>
     </row>

--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="372">
   <si>
     <t>ID</t>
   </si>
@@ -110,18 +110,18 @@
     <t>访客邀请--到访户号--正常</t>
   </si>
   <si>
-    <t>/api/v1/family/house/list?userId=c::releaser_userId</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"c::releaser_accesstoken"}</t>
+    <t>/api/v1/family/house/list?userId=c::ysy_userId</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"c::ysy_accesstoken"}</t>
   </si>
   <si>
     <t>houseId$$select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
-where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::release_user);</t>
+where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::ysy_user);</t>
   </si>
   <si>
     <t>select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
-where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::release_user);</t>
+where u.mobile={0} AND mhr.is_default='Y' AND mhr.is_valid='Y'format(c::ysy_user);</t>
   </si>
   <si>
     <t>0007</t>
@@ -136,7 +136,7 @@
     <t>/api/v1/family/share/invitation?userId=</t>
   </si>
   <si>
-    <t>{"enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"c::releaser_accesstoken"}</t>
+    <t>{"enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"c::ysy_accesstoken"}</t>
   </si>
   <si>
     <t>用户ID参数为空</t>
@@ -171,14 +171,14 @@
     <t>是否有好友分享的实体或虚拟用户信息</t>
   </si>
   <si>
-    <t>/api/v1/family/share/invitation?userId=c::releaser_userId</t>
+    <t>/api/v1/family/share/invitation?userId=c::ysy_userId</t>
   </si>
   <si>
     <t>biotopeId$$SELECT IFNULL(h.biotope_id,'biotope is null') FROM member_house_relationship mh 
 INNER JOIN pm_house h ON mh.`id_family_house` = h.`id`
 INNER JOIN `user` u ON mh.`id_user` = u.`id`
 WHERE u.`mobile` ={0}
-AND mh.`is_default` = 'Y'format(c::release_user);</t>
+AND mh.`is_default` = 'Y'format(c::ysy_user);</t>
   </si>
   <si>
     <t>code": 0</t>
@@ -211,7 +211,7 @@
     <t>访客记录--待来访列表</t>
   </si>
   <si>
-    <t>{"pageNo":1,"pageSize":15,"userId":"c::release_user"}</t>
+    <t>{"pageNo":1,"pageSize":15,"userId":"c::ysy_user"}</t>
   </si>
   <si>
     <t>0011</t>
@@ -241,7 +241,7 @@
     <t>报修类型</t>
   </si>
   <si>
-    <t>/api/v1/area/repair/favoriteAndTypes?userId=c::releaser_userId&amp;biotopeId=j::biotopeId</t>
+    <t>/api/v1/area/repair/favoriteAndTypes?userId=c::ysy_userId&amp;biotopeId=j::biotopeId</t>
   </si>
   <si>
     <t>0015</t>
@@ -256,7 +256,7 @@
     <t>/api/v1/member/addMenberStep</t>
   </si>
   <si>
-    <t>{"stepNum":"8888","userId":"c::release_user"}</t>
+    <t>{"stepNum":"8888","userId":"c::ysy_user"}</t>
   </si>
   <si>
     <t>0016</t>
@@ -280,7 +280,7 @@
     <t>data/token</t>
   </si>
   <si>
-    <t>{"phone":"c::release_user","captcha":"135246"}</t>
+    <t>{"phone":"c::ysy_user","captcha":"135246"}</t>
   </si>
   <si>
     <t>status": 200</t>
@@ -313,7 +313,7 @@
     <t>登陆--隐私协议</t>
   </si>
   <si>
-    <t>/api/v1/user/getUserPrivacyPolicy?mobile=c::release_user</t>
+    <t>/api/v1/user/getUserPrivacyPolicy?mobile=c::ysy_user</t>
   </si>
   <si>
     <t>data": 2</t>
@@ -340,7 +340,7 @@
     <t>登陆--获取家人拖动顺序</t>
   </si>
   <si>
-    <t>/api/v1/family/member/getMemberOrder?userId=c::releaser_userId</t>
+    <t>/api/v1/family/member/getMemberOrder?userId=c::ysy_userId</t>
   </si>
   <si>
     <t>data": [</t>
@@ -364,10 +364,10 @@
     <t>login_005_family_Info</t>
   </si>
   <si>
-    <t>/api/v1/user/familyInfo?userId=c::releaser_userId</t>
-  </si>
-  <si>
-    <t>c::release_user</t>
+    <t>/api/v1/user/familyInfo?userId=c::ysy_userId</t>
+  </si>
+  <si>
+    <t>c::ysy_user</t>
   </si>
   <si>
     <t>家庭成员信息</t>
@@ -418,7 +418,7 @@
     <t>0026</t>
   </si>
   <si>
-    <t>/api/v1/family/member/getNotLabelFamilyUser?userId=c::releaser_userId</t>
+    <t>/api/v1/family/member/getNotLabelFamilyUser?userId=c::ysy_userId</t>
   </si>
   <si>
     <t>0027</t>
@@ -445,14 +445,14 @@
     <t>设置默认房屋</t>
   </si>
   <si>
-    <t>/api/v1/family/house/updateBind?userId=c::releaser_userId</t>
+    <t>/api/v1/family/house/updateBind?userId=c::ysy_userId</t>
   </si>
   <si>
     <t>familyHouseId$$select IFNULL(mhr.id_family_house,'check is error') from user u LEFT JOIN member_house_relationship mhr ON u.id = mhr.id_user 
-where u.mobile={0} AND mhr.is_valid='Y' LIMIT 1format(c::release_user);</t>
-  </si>
-  <si>
-    <t>{"familyHouseId":"j::familyHouseId","isDefault":"Y","mobile":"c::release_user","newFamilyHouseId":""}</t>
+where u.mobile={0} AND mhr.is_valid='Y' LIMIT 1format(c::ysy_user);</t>
+  </si>
+  <si>
+    <t>{"familyHouseId":"j::familyHouseId","isDefault":"Y","mobile":"c::ysy_user","newFamilyHouseId":""}</t>
   </si>
   <si>
     <t>0030</t>
@@ -493,7 +493,7 @@
     <t>0031</t>
   </si>
   <si>
-    <t>{"familyHouseId":"","isDefault":"Y","mobile":"c::release_user","newFamilyHouseId":""}</t>
+    <t>{"familyHouseId":"","isDefault":"Y","mobile":"c::ysy_user","newFamilyHouseId":""}</t>
   </si>
   <si>
     <t>房屋ID不能为空</t>
@@ -502,7 +502,7 @@
     <t>0032</t>
   </si>
   <si>
-    <t>{"familyHouseId":"j::familyHouseId","isDefault":"","mobile":"c::release_user","newFamilyHouseId":""}</t>
+    <t>{"familyHouseId":"j::familyHouseId","isDefault":"","mobile":"c::ysy_user","newFamilyHouseId":""}</t>
   </si>
   <si>
     <t>是否设为默认房屋信息不能为空</t>
@@ -517,7 +517,7 @@
     <t>首页--今日推荐</t>
   </si>
   <si>
-    <t>/api/v1/index/todayRecommend/list?userId=c::releaser_userId&amp;biotopeId=j::biotopeId</t>
+    <t>/api/v1/index/todayRecommend/list?userId=c::ysy_userId&amp;biotopeId=j::biotopeId</t>
   </si>
   <si>
     <t>bannerUrl</t>
@@ -544,7 +544,7 @@
     <t>首页--今日推荐--缺少小区id</t>
   </si>
   <si>
-    <t>/api/v1/index/todayRecommend/list?userId=c::releaser_userId&amp;biotopeId=</t>
+    <t>/api/v1/index/todayRecommend/list?userId=c::ysy_userId&amp;biotopeId=</t>
   </si>
   <si>
     <t>无数据返回值；小区id也是非必填项，不填发挥则是空</t>
@@ -574,7 +574,7 @@
     <t>首页--话题专栏</t>
   </si>
   <si>
-    <t>/api/v1/topic?userId=c::releaser_userId&amp;typeId=&amp;pageSize=5&amp;pageNo=1</t>
+    <t>/api/v1/topic?userId=c::ysy_userId&amp;typeId=&amp;pageSize=5&amp;pageNo=1</t>
   </si>
   <si>
     <t>0038</t>
@@ -598,7 +598,7 @@
     <t>首页--每日登陆获取积分</t>
   </si>
   <si>
-    <t>/api/v1/user/loginScore?userId=c::releaser_userId</t>
+    <t>/api/v1/user/loginScore?userId=c::ysy_userId</t>
   </si>
   <si>
     <t>0040</t>
@@ -610,7 +610,7 @@
     <t>首页--更新城市--缺少城市</t>
   </si>
   <si>
-    <t>/api/v1/user/updateLocateCity?cityName=&amp;userId=c::releaser_userId</t>
+    <t>/api/v1/user/updateLocateCity?cityName=&amp;userId=c::ysy_userId</t>
   </si>
   <si>
     <t>0041</t>
@@ -628,7 +628,7 @@
     <t>首页--更新城市</t>
   </si>
   <si>
-    <t>/api/v1/user/updateLocateCity?cityName=成都&amp;userId=c::releaser_userId</t>
+    <t>/api/v1/user/updateLocateCity?cityName=成都&amp;userId=c::ysy_userId</t>
   </si>
   <si>
     <t>0043</t>
@@ -661,7 +661,7 @@
     <t>/appapi.php?g=appapi&amp;c=Tfapi&amp;a=get_my_three_info&amp;ticket=j::ssoToken&amp;Device_Id=</t>
   </si>
   <si>
-    <t>SELECT CONCAT('cart_count": ',IFNULL(pu.score_count,'query is error')) from pigcms_user pu WHERE pu.phone = {0}format(c::release_user);</t>
+    <t>SELECT CONCAT('cart_count": ',IFNULL(pu.score_count,'query is error')) from pigcms_user pu WHERE pu.phone = {0}format(c::ysy_user);</t>
   </si>
   <si>
     <t>注意这里的ticket就是取的ssotoken值，重新登录会变化</t>
@@ -697,10 +697,10 @@
     <t>0047</t>
   </si>
   <si>
-    <t>/api/v1/family/member/list?userId=c::releaser_userId</t>
-  </si>
-  <si>
-    <t>SELECT IFNULL(u.nick_name,'query is error') from `user` u WHERE u.mobile='{0}'format(c::release_user);</t>
+    <t>/api/v1/family/member/list?userId=c::ysy_userId</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(u.nick_name,'query is error') from `user` u WHERE u.mobile='{0}'format(c::ysy_user);</t>
   </si>
   <si>
     <t>0048</t>
@@ -745,7 +745,7 @@
     <t>首页--获取天气信息</t>
   </si>
   <si>
-    <t>/api/v1/user/getWeatherInfo?userId=c::releaser_userId&amp;cityName=成都</t>
+    <t>/api/v1/user/getWeatherInfo?userId=c::ysy_userId&amp;cityName=成都</t>
   </si>
   <si>
     <t>成都</t>
@@ -769,7 +769,7 @@
     <t>首页--获取天气信息--缺少城市名</t>
   </si>
   <si>
-    <t>/api/v1/user/getWeatherInfo?userId=c::releaser_userId</t>
+    <t>/api/v1/user/getWeatherInfo?userId=c::ysy_userId</t>
   </si>
   <si>
     <t>0054</t>
@@ -808,7 +808,7 @@
     <t>小区--首页banner</t>
   </si>
   <si>
-    <t>/api/v1/index/commend/banner/list?bannerCode=60&amp;userId=c::releaser_userId&amp;biotopeId=j::biotopeId</t>
+    <t>/api/v1/index/commend/banner/list?bannerCode=60&amp;userId=c::ysy_userId&amp;biotopeId=j::biotopeId</t>
   </si>
   <si>
     <t>SELECT IFNULL(b.title, 0) FROM banner b WHERE (b.is_valid = 'Y' AND b.id_banner_position = 60 AND b.end_time &gt; DATE_FORMAT(curdate(), '%Y-%m-%d 00:00:00') AND b.link_type = 3) LIMIT 0,1;</t>
@@ -832,7 +832,7 @@
     <t>小区--首页banner--缺少biotopoeId</t>
   </si>
   <si>
-    <t>/api/v1/index/commend/banner/list?bannerCode=60&amp;userId=c::releaser_userId&amp;biotopeId=</t>
+    <t>/api/v1/index/commend/banner/list?bannerCode=60&amp;userId=c::ysy_userId&amp;biotopeId=</t>
   </si>
   <si>
     <t>建议biotopoeId作为必填项</t>
@@ -874,16 +874,16 @@
     <t>我的--首页--获取用户信息</t>
   </si>
   <si>
-    <t>/api/v1/user/info?userId=c::releaser_userId&amp;userLevel=j::userLevel</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"c::releaser_accesstoken","ssoToken":"j::ssoToken"}</t>
-  </si>
-  <si>
-    <t>userLevel$$select IFNULL(ul.level_rank,'query is error') from user u LEFT JOIN user_level ul ON u.id_user_level = ul.id where u.mobile = '{0}'format(c::release_user);</t>
-  </si>
-  <si>
-    <t>SELECT IFNULL(u.nick_name,'query is error') from user u WHERE u.mobile = '{0}'format(c::release_user);</t>
+    <t>/api/v1/user/info?userId=c::ysy_userId&amp;userLevel=j::userLevel</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"c::ysy_accesstoken","ssoToken":"j::ssoToken"}</t>
+  </si>
+  <si>
+    <t>userLevel$$select IFNULL(ul.level_rank,'query is error') from user u LEFT JOIN user_level ul ON u.id_user_level = ul.id where u.mobile = '{0}'format(c::ysy_user);</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(u.nick_name,'query is error') from user u WHERE u.mobile = '{0}'format(c::ysy_user);</t>
   </si>
   <si>
     <t>0062</t>
@@ -901,12 +901,222 @@
     <t>我的--首页--获取用户信息--缺少userlevel</t>
   </si>
   <si>
-    <t>/api/v1/user/info?userId=c::releaser_userId&amp;userLevel=</t>
+    <t>/api/v1/user/info?userId=c::ysy_userId&amp;userLevel=</t>
   </si>
   <si>
     <t>userLevel不是必填项</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>ysy_pro_release</t>
+  </si>
+  <si>
+    <t>ysy_pro_001_user_login</t>
+  </si>
+  <si>
+    <t>一生约物业app登录</t>
+  </si>
+  <si>
+    <t>/api/v1/user/login</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>data/accessToken,data/userId</t>
+  </si>
+  <si>
+    <t>{"mobile":"c::ysy_pro_user","password":"123456"}</t>
+  </si>
+  <si>
+    <t>注意，所有的一生约app及物业app需要统一先后顺序，否则token被覆盖，可能导致运行失败</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>一生约物业app登录--缺少手机号</t>
+  </si>
+  <si>
+    <t>{"mobile":"","password":"123456"}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>一生约物业app登录--密码错误</t>
+  </si>
+  <si>
+    <t>{"mobile":"c::ysy_pro_user","password":"123457"}</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>ysy_pro_002_myself</t>
+  </si>
+  <si>
+    <t>我的--个人资料</t>
+  </si>
+  <si>
+    <t>/api/v1/user/personInfo?userId=j::userId</t>
+  </si>
+  <si>
+    <t>{"accessToken":"j::accessToken"}</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(pe.name,'query is error') FROM property_employees pe WHERE pe.mobile='19981203720';</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>我的--个人资料--缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/user/personInfo?userId=</t>
+  </si>
+  <si>
+    <t>用户ID不能为空</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>我的--个人资料--token不匹配</t>
+  </si>
+  <si>
+    <t>{"accessToken":"accessToken"}</t>
+  </si>
+  <si>
+    <t>这里并没有验证userid和token是否匹配</t>
+  </si>
+  <si>
+    <t>建议验证</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>ysy_pro_003_sign_find_employees_sign</t>
+  </si>
+  <si>
+    <t>根据员工Id获取当天最近一次签到记录</t>
+  </si>
+  <si>
+    <t>/api/v1/employee/sign/findEmployeesSign?userId=j::userId</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>根据员工Id获取当天最近一次签到记录--缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/employee/sign/findEmployeesSign?userId=</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>根据员工Id获取当天最近一次签到记录--token不匹配</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>ysy_pro_001_receive_setting</t>
+  </si>
+  <si>
+    <t>首页--抢单状态更改</t>
+  </si>
+  <si>
+    <t>/api/v1/user/receiveSetting?userId=j::userId</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","accessToken":"j::accessToken"}</t>
+  </si>
+  <si>
+    <t>{"isReceive":"Y"}</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>首页--抢单状态更改--缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/user/receiveSetting?userId=</t>
+  </si>
+  <si>
+    <t>用户参数为空</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>首页--抢单状态更改--token不匹配</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","accessToken":"accessToken"}</t>
+  </si>
+  <si>
+    <t>access_token无效</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>首页--抢单状态更改--接收状态异常</t>
+  </si>
+  <si>
+    <t>{"isReceive":"S"}</t>
+  </si>
+  <si>
+    <t>接单设置参数错误</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>ysy_pro_002_receive_setting_info</t>
+  </si>
+  <si>
+    <t>首页--抢单状态获取</t>
+  </si>
+  <si>
+    <t>/api/v1/user/receiveSettingInfo?userId=j::userId</t>
+  </si>
+  <si>
+    <t>isReceive": "Y</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>首页--抢单状态获取--缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/user/receiveSettingInfo?userId=</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>首页--抢单状态获取--token不匹配</t>
+  </si>
+  <si>
+    <t>{"accessToken":"jaccessToken"}</t>
+  </si>
+  <si>
     <t>0003</t>
   </si>
   <si>
@@ -937,9 +1147,6 @@
     <t>登陆--无手机号</t>
   </si>
   <si>
-    <t>/api/v1/user/login</t>
-  </si>
-  <si>
     <t>{"verifyCode":"j::verifyCode"}</t>
   </si>
   <si>
@@ -995,6 +1202,9 @@
   </si>
   <si>
     <t>/api/v1/family/visitor/inviteVisitor?</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","enterpriseId":"1122c78ae5d140a5acbaa9e75c8b8994","accessToken":"c::releaser_accesstoken"}</t>
   </si>
   <si>
     <t>{"visitorId":"","userId":"c::release_user","mobile":"","name":"Auto1305","times":"3","startTime":"2020-07-13","endTime":"2020-07-13","biotopeId":"45b238db5af04515869dc9cbcf14a431","houseId":"j::houseId"}</t>
@@ -1008,12 +1218,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,9 +1266,11 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="7.2"/>
+      <color rgb="FF008080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1094,6 +1306,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1108,13 +1326,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1136,9 +1384,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,8 +1407,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1168,16 +1431,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,15 +1455,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,45 +1464,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,7 +1502,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,49 +1604,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,121 +1682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,13 +1705,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1509,15 +1731,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,23 +1753,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,8 +1786,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1592,10 +1810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1604,137 +1822,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1813,62 +2031,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1879,13 +2118,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2239,17 +2475,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="$A69:$XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.77777777777778" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.77777777777778" style="30" customWidth="1"/>
+    <col min="3" max="3" width="9.77777777777778" style="35" customWidth="1"/>
     <col min="4" max="4" width="16.4444444444444" style="4" customWidth="1"/>
     <col min="5" max="5" width="25.5555555555556" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.5555555555556" style="4" customWidth="1"/>
@@ -2269,41 +2505,41 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="36" spans="1:11">
+    <row r="2" s="3" customFormat="1" ht="26.4" spans="1:11">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -2390,7 +2626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="118.8" spans="1:12">
+    <row r="5" s="4" customFormat="1" ht="105.6" spans="1:12">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2546,7 +2782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" s="29" customFormat="1" ht="39.6" spans="1:11">
+    <row r="10" s="34" customFormat="1" ht="39.6" spans="1:11">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -2573,7 +2809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="29" customFormat="1" ht="39.6" spans="1:11">
+    <row r="11" s="34" customFormat="1" ht="39.6" spans="1:11">
       <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
@@ -2596,14 +2832,14 @@
         <v>24</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="34" t="s">
         <v>62</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" s="29" customFormat="1" ht="39.6" spans="1:11">
+    <row r="12" s="34" customFormat="1" ht="39.6" spans="1:11">
       <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
@@ -2635,7 +2871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" s="29" customFormat="1" ht="13.2" spans="1:11">
+    <row r="13" s="34" customFormat="1" ht="13.2" spans="1:11">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -2754,7 +2990,7 @@
       </c>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="39.6" spans="1:13">
+    <row r="17" s="3" customFormat="1" ht="26.4" spans="1:13">
       <c r="A17" s="13" t="s">
         <v>93</v>
       </c>
@@ -3065,7 +3301,7 @@
       <c r="J26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="54" t="s">
         <v>130</v>
       </c>
       <c r="L26" s="22"/>
@@ -3136,7 +3372,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" ht="48" spans="1:12">
+    <row r="29" s="4" customFormat="1" ht="36" spans="1:12">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -3146,7 +3382,7 @@
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="41" t="s">
         <v>138</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -3155,10 +3391,10 @@
       <c r="F29" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="32" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -3175,7 +3411,7 @@
       <c r="C30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="41" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3184,10 +3420,10 @@
       <c r="F30" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="32" t="s">
         <v>141</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -3204,7 +3440,7 @@
       <c r="C31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="41" t="s">
         <v>138</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -3213,10 +3449,10 @@
       <c r="F31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="46" t="s">
         <v>37</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -3233,7 +3469,7 @@
       <c r="C32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="42" t="s">
         <v>152</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3262,7 +3498,7 @@
       <c r="C33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="43" t="s">
         <v>152</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -3285,10 +3521,10 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="40" t="s">
+      <c r="C34" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>161</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3297,10 +3533,10 @@
       <c r="F34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="49" t="s">
+      <c r="K34" s="55" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -3314,10 +3550,10 @@
       <c r="B35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="40" t="s">
+      <c r="C35" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="45" t="s">
         <v>161</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3326,10 +3562,10 @@
       <c r="F35" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="41" t="s">
+      <c r="K35" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3343,7 +3579,7 @@
       <c r="C36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="45" t="s">
         <v>169</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -3369,7 +3605,7 @@
       <c r="C37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="45" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -3395,7 +3631,7 @@
       <c r="C38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="45" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3421,7 +3657,7 @@
       <c r="C39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="42" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -3445,7 +3681,7 @@
       <c r="C40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="42" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -3462,7 +3698,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="1" ht="48.75" spans="1:13">
+    <row r="41" s="4" customFormat="1" ht="36.75" spans="1:13">
       <c r="A41" s="13" t="s">
         <v>190</v>
       </c>
@@ -3472,7 +3708,7 @@
       <c r="C41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="42" t="s">
         <v>185</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -3499,7 +3735,7 @@
       <c r="C42" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -3511,7 +3747,7 @@
       <c r="G42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="50" t="s">
+      <c r="K42" s="56" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3525,7 +3761,7 @@
       <c r="C43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="42" t="s">
         <v>196</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -3551,7 +3787,7 @@
       <c r="C44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="42" t="s">
         <v>196</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3563,7 +3799,7 @@
       <c r="G44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="50" t="s">
+      <c r="K44" s="56" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3577,7 +3813,7 @@
       <c r="C45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="47" t="s">
         <v>205</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -3601,7 +3837,7 @@
       <c r="C46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="47" t="s">
         <v>210</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -3625,7 +3861,7 @@
       <c r="C47" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="42" t="s">
         <v>214</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -3654,7 +3890,7 @@
       <c r="C48" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="42" t="s">
         <v>214</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -3683,7 +3919,7 @@
       <c r="C49" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="42" t="s">
         <v>214</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -3702,23 +3938,23 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="118.8" spans="1:11">
+    <row r="50" customFormat="1" ht="105.6" spans="1:11">
       <c r="A50" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="28" t="s">
+      <c r="C50" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="49" t="s">
         <v>228</v>
       </c>
       <c r="G50" s="21" t="s">
@@ -3738,16 +3974,16 @@
       <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="28" t="s">
+      <c r="C51" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="49" t="s">
         <v>232</v>
       </c>
       <c r="G51" s="21" t="s">
@@ -3765,16 +4001,16 @@
       <c r="B52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="28" t="s">
+      <c r="C52" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="31" t="s">
         <v>237</v>
       </c>
       <c r="G52" s="21" t="s">
@@ -3792,16 +4028,16 @@
       <c r="B53" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="28" t="s">
+      <c r="C53" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="31" t="s">
         <v>241</v>
       </c>
       <c r="G53" s="21" t="s">
@@ -3811,7 +4047,7 @@
       <c r="K53" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="M53" s="51" t="s">
+      <c r="M53" s="57" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3822,16 +4058,16 @@
       <c r="B54" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="28" t="s">
+      <c r="C54" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="31" t="s">
         <v>245</v>
       </c>
       <c r="G54" s="21" t="s">
@@ -3840,7 +4076,7 @@
       <c r="K54" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="M54" s="51" t="s">
+      <c r="M54" s="57" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3851,16 +4087,16 @@
       <c r="B55" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C55" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="27" t="s">
+      <c r="C55" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="31" t="s">
         <v>251</v>
       </c>
       <c r="G55" s="21" t="s">
@@ -3878,16 +4114,16 @@
       <c r="B56" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="27" t="s">
+      <c r="C56" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="31" t="s">
         <v>255</v>
       </c>
       <c r="G56" s="21" t="s">
@@ -3905,16 +4141,16 @@
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="27" t="s">
+      <c r="C57" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="31" t="s">
         <v>259</v>
       </c>
       <c r="G57" s="21" t="s">
@@ -3934,16 +4170,16 @@
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="27" t="s">
+      <c r="C58" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="31" t="s">
         <v>265</v>
       </c>
       <c r="G58" s="21" t="s">
@@ -3963,16 +4199,16 @@
       <c r="B59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="27" t="s">
+      <c r="C59" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="31" t="s">
         <v>268</v>
       </c>
       <c r="G59" s="21" t="s">
@@ -3986,6 +4222,483 @@
       </c>
       <c r="L59" s="16" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="60" s="27" customFormat="1" ht="86.4" spans="1:12">
+      <c r="A60" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="K60" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" s="27" customFormat="1" ht="43.2" spans="1:11">
+      <c r="A61" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I61" s="32"/>
+      <c r="J61" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="K61" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" s="27" customFormat="1" ht="57.6" spans="1:11">
+      <c r="A62" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I62" s="32"/>
+      <c r="J62" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="K62" s="32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" s="27" customFormat="1" ht="43.2" spans="1:11">
+      <c r="A63" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I63" s="32"/>
+      <c r="K63" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" s="27" customFormat="1" ht="24" spans="1:11">
+      <c r="A64" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I64" s="32"/>
+      <c r="K64" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" s="27" customFormat="1" ht="43.2" spans="1:13">
+      <c r="A65" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I65" s="32"/>
+      <c r="K65" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" s="27" customFormat="1" ht="36" spans="1:11">
+      <c r="A66" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I66" s="32"/>
+      <c r="K66" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" s="27" customFormat="1" ht="24" spans="1:11">
+      <c r="A67" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="K67" s="32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" s="27" customFormat="1" ht="43.2" spans="1:13">
+      <c r="A68" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="32"/>
+      <c r="K68" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" s="26" customFormat="1" ht="26.4" spans="1:13">
+      <c r="A69" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="K69" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L69" s="30"/>
+      <c r="M69" s="33"/>
+    </row>
+    <row r="70" s="26" customFormat="1" ht="26.4" spans="1:13">
+      <c r="A70" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="L70" s="30"/>
+      <c r="M70" s="33"/>
+    </row>
+    <row r="71" s="26" customFormat="1" ht="26.4" spans="1:13">
+      <c r="A71" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="K71" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="L71" s="30"/>
+      <c r="M71" s="33"/>
+    </row>
+    <row r="72" s="26" customFormat="1" ht="26.4" spans="1:13">
+      <c r="A72" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="K72" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="L72" s="30"/>
+      <c r="M72" s="33"/>
+    </row>
+    <row r="73" s="27" customFormat="1" ht="24" spans="1:11">
+      <c r="A73" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I73" s="32"/>
+      <c r="K73" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" s="27" customFormat="1" ht="24" spans="1:11">
+      <c r="A74" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I74" s="32"/>
+      <c r="K74" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" s="27" customFormat="1" ht="24" spans="1:11">
+      <c r="A75" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="I75" s="32"/>
+      <c r="K75" s="32" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3997,13 +4710,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.77777777777778" style="5" customWidth="1"/>
@@ -4060,97 +4773,217 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="52.8" spans="1:11">
+    <row r="2" s="26" customFormat="1" ht="26.4" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>259</v>
+        <v>271</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>314</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" s="16" customFormat="1" ht="52.8" spans="1:11">
+        <v>315</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="33"/>
+    </row>
+    <row r="3" s="26" customFormat="1" ht="26.4" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>265</v>
+        <v>271</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" s="16" customFormat="1" ht="52.8" spans="1:12">
+        <v>315</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" s="26" customFormat="1" ht="26.4" spans="1:13">
       <c r="A4" s="13" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>314</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>269</v>
+        <v>323</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" s="26" customFormat="1" ht="26.4" spans="1:13">
+      <c r="A5" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" s="27" customFormat="1" ht="24" spans="1:11">
+      <c r="A6" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="K6" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" s="27" customFormat="1" ht="24" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="K7" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="24" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="K8" s="32" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4165,7 +4998,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G7" sqref="$A7:$XFD7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="6"/>
@@ -4227,50 +5060,50 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="48" spans="1:13">
       <c r="A2" s="12" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="M2" s="17"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="26.4" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="18" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>19</v>
@@ -4278,29 +5111,29 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="3" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="26.4" spans="1:13">
       <c r="A4" s="13" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="18" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>19</v>
@@ -4308,29 +5141,29 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="3" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="M4" s="25"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="39.6" spans="1:13">
       <c r="A5" s="13" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="18" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>19</v>
@@ -4338,50 +5171,50 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="3" t="s">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="M5" s="25"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="66" spans="1:13">
       <c r="A6" s="13" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="18" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="M6" s="25"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="171.6" spans="1:12">
       <c r="A7" s="13" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -4390,24 +5223,24 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>24</v>
+        <v>369</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="L7" s="3"/>
     </row>

--- a/Conf/接口示例.xlsx
+++ b/Conf/接口示例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="611">
   <si>
     <t>ID</t>
   </si>
@@ -1658,6 +1658,270 @@
     <t>SELECT IFNULL(pi.property_name,'Get data error') from property_employees pe LEFT JOIN property_info pi ON pe.id_property_info=pi.id WHERE pe.mobile ='{0}'format(c::ysy_pro_user);</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>ysy_pro_006_repair_find_Index_Order_Num</t>
+  </si>
+  <si>
+    <t>首页--我的任务-完成/未完成--缺少userid</t>
+  </si>
+  <si>
+    <t>/api/v1/repair/findIndexOrderNum?userId=</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>首页--我的任务-完成/未完成--缺少accessToken</t>
+  </si>
+  <si>
+    <t>/api/v1/repair/findIndexOrderNum?userId=j::userId</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>首页--我的任务-完成/未完成</t>
+  </si>
+  <si>
+    <t>这里不用验证单数，后面会有接口单独验证</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>ysy_pro_008_Health_Check_visitAdd</t>
+  </si>
+  <si>
+    <t>首页-访客登记--userId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/epidemic/residentInOutHealthCheck/visitAdd?userId=</t>
+  </si>
+  <si>
+    <r>
+      <t>{"customerName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>自动化访客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>","visitMobile":"13438788212","visitIdNo":"","visitReason":"VISIT_FRIEND","visitCarNo":"","visitPhotos":"","temperature":"LT_37D3","q2":"N","q3":"N","q4":"N","houseId":"j::houseId"}</t>
+    </r>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>首页-访客登记--访客姓名为空</t>
+  </si>
+  <si>
+    <t>/api/v1/epidemic/residentInOutHealthCheck/visitAdd?userId=j::userId</t>
+  </si>
+  <si>
+    <t>{"customerName":"","visitMobile":"13438788212","visitIdNo":"","visitReason":"VISIT_FRIEND","visitCarNo":"","visitPhotos":"","temperature":"LT_37D3","q2":"N","q3":"N","q4":"N","houseId":"j::houseId"}</t>
+  </si>
+  <si>
+    <t>访客姓名不能为空</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>首页-访客登记--联系电话为空</t>
+  </si>
+  <si>
+    <r>
+      <t>{"customerName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>自动化访客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>","visitMobile":"","visitIdNo":"","visitReason":"VISIT_FRIEND","visitCarNo":"","visitPhotos":"","temperature":"LT_37D3","q2":"N","q3":"N","q4":"N","houseId":"j::houseId"}</t>
+    </r>
+  </si>
+  <si>
+    <t>联系电话不能为空</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>首页-访客登记--体温异常</t>
+  </si>
+  <si>
+    <r>
+      <t>{"customerName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>自动化访客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>","visitMobile":"13438788212","visitIdNo":"","visitReason":"VISIT_FRIEND","visitCarNo":"","visitPhotos":"","temperature":"","q2":"N","q3":"N","q4":"N","houseId":"j::houseId"}</t>
+    </r>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>首页-访客登记--accessToken为空</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8","accessToken":""}</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>首页-访客登记</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>ysy_pro_009_get_Repair_List_1</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--未接单---biotopeId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=j::userId&amp;biotopeId=&amp;status=1&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--未接单--userId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=&amp;biotopeId=j::biotopeId&amp;status=1&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>员工Id不能为空</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--未接单</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=j::userId&amp;biotopeId=j::biotopeId&amp;status=1&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(CONCAT('totalCount": ',COUNT(*)),'Get data error') FROM public_area_repair par WHERE par.biotope_id='j::biotopeId' AND par.repairer_id ='::userId' AND par.status ='1';</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--处理中---biotopeId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=j::userId&amp;biotopeId=&amp;status=1&amp;pageNo=2&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--处理中--userId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=&amp;biotopeId=j::biotopeId&amp;status=2&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--处理中</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=j::userId&amp;biotopeId=j::biotopeId&amp;status=2&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(CONCAT('totalCount": ',COUNT(*)),'Get data error') FROM public_area_repair par WHERE par.biotope_id='j::biotopeId' AND par.repairer_id ='::userId' AND par.status ='2';</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--已取消---biotopeId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=j::userId&amp;biotopeId=&amp;status=4&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--已取消--userId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=&amp;biotopeId=j::biotopeId&amp;status=4&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--已取消</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=j::userId&amp;biotopeId=j::biotopeId&amp;status=4&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(CONCAT('totalCount": ',COUNT(*)),'Get data error') FROM public_area_repair par WHERE par.biotope_id='j::biotopeId' AND par.repairer_id ='::userId' AND par.status ='4';</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--已完成---biotopeId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=j::userId&amp;biotopeId=&amp;status=5&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>首页-任务列表--公区--已完成--userId为空</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=&amp;biotopeId=j::biotopeId&amp;status=5&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
     <t>yhz_test</t>
   </si>
   <si>
@@ -1755,6 +2019,12 @@
   </si>
   <si>
     <t>/api/yhz/org/get_send_food_record_list?page=1&amp;limit=9</t>
+  </si>
+  <si>
+    <t>/api/v1/publicAreaRepair/getRepairList?userId=j::userId&amp;biotopeId=j::biotopeId&amp;status=5&amp;pageNo=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>SELECT IFNULL(CONCAT('totalCount": ',COUNT(*)),'Get data error') FROM public_area_repair par WHERE par.biotope_id='j::biotopeId' AND par.repairer_id ='::userId' AND par.status ='5';</t>
   </si>
 </sst>
 </file>
@@ -1763,9 +2033,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1797,6 +2067,13 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.2"/>
+      <color rgb="FF008080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1856,13 +2133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7.2"/>
-      <color rgb="FF008080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1876,11 +2146,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1892,13 +2190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1907,9 +2198,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1924,42 +2268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1967,46 +2276,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2053,7 +2323,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,7 +2413,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2077,163 +2491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,17 +2526,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2274,8 +2538,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2291,6 +2570,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2312,15 +2600,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2330,26 +2609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2361,10 +2631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2373,137 +2643,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2540,6 +2810,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2558,6 +2831,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2567,10 +2861,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2588,31 +2879,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2633,13 +2909,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2657,34 +2927,31 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3035,374 +3302,374 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116:F116"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.77777777777778" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.5555555555556" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.4444444444444" style="22" customWidth="1"/>
-    <col min="5" max="5" width="25.5555555555556" style="22" customWidth="1"/>
-    <col min="6" max="6" width="27.5555555555556" style="22" customWidth="1"/>
-    <col min="7" max="7" width="51.6666666666667" style="22" customWidth="1"/>
-    <col min="8" max="8" width="22.4814814814815" style="22" customWidth="1"/>
-    <col min="9" max="9" width="44.5833333333333" style="22" customWidth="1"/>
-    <col min="10" max="10" width="46.7777777777778" style="22" customWidth="1"/>
-    <col min="11" max="11" width="49" style="22" customWidth="1"/>
-    <col min="12" max="13" width="15.7777777777778" style="22" customWidth="1"/>
-    <col min="14" max="16384" width="8.88888888888889" style="22"/>
+    <col min="1" max="1" width="9" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.77777777777778" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.5555555555556" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" style="20" customWidth="1"/>
+    <col min="5" max="5" width="25.5555555555556" style="20" customWidth="1"/>
+    <col min="6" max="6" width="27.5555555555556" style="20" customWidth="1"/>
+    <col min="7" max="7" width="51.6666666666667" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.4814814814815" style="20" customWidth="1"/>
+    <col min="9" max="9" width="44.5833333333333" style="20" customWidth="1"/>
+    <col min="10" max="10" width="46.7777777777778" style="20" customWidth="1"/>
+    <col min="11" max="11" width="49" style="20" customWidth="1"/>
+    <col min="12" max="13" width="15.7777777777778" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="20"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="1" ht="13.2" spans="1:13">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="21" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A2" s="28" t="s">
+    <row r="2" s="12" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="21" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A3" s="28" t="s">
+    <row r="3" s="12" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="K3" s="29" t="s">
+      <c r="H3" s="25"/>
+      <c r="K3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A4" s="28" t="s">
+    <row r="4" s="12" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="21" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A5" s="28" t="s">
+    <row r="5" s="12" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="K5" s="29" t="s">
+      <c r="H5" s="25"/>
+      <c r="K5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" ht="26.4" spans="1:13">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="22"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" s="11" customFormat="1" ht="26.4" spans="1:13">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="42"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" s="11" customFormat="1" ht="26.4" spans="1:13">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="33" t="s">
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="42"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" s="11" customFormat="1" ht="66" spans="1:13">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" s="11" customFormat="1" ht="26.4" spans="1:12">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="33"/>
+      <c r="B10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="36"/>
       <c r="D10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="39" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" ht="79.2" spans="1:11">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="33"/>
+      <c r="B11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" s="22" customFormat="1" ht="145.2" spans="1:12">
-      <c r="A12" s="28" t="s">
+    <row r="12" s="20" customFormat="1" ht="145.2" spans="1:12">
+      <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="33"/>
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="36"/>
       <c r="D12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="39" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H12" s="11"/>
@@ -3410,31 +3677,31 @@
       <c r="J12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" s="22" customFormat="1" ht="145.2" spans="1:12">
-      <c r="A13" s="28" t="s">
+    <row r="13" s="20" customFormat="1" ht="145.2" spans="1:12">
+      <c r="A13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="33"/>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="36"/>
       <c r="D13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="39" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="11"/>
@@ -3442,61 +3709,61 @@
       <c r="J13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" s="22" customFormat="1" ht="49.2" spans="1:12">
-      <c r="A14" s="28" t="s">
+    <row r="14" s="20" customFormat="1" ht="49.2" spans="1:12">
+      <c r="A14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="33"/>
+      <c r="B14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="36"/>
       <c r="D14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="39" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="24" t="s">
         <v>79</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" s="22" customFormat="1" ht="92.4" spans="1:12">
-      <c r="A15" s="28" t="s">
+    <row r="15" s="20" customFormat="1" ht="92.4" spans="1:12">
+      <c r="A15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="33"/>
+      <c r="B15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="36"/>
       <c r="D15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="39" t="s">
         <v>83</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="24" t="s">
         <v>85</v>
       </c>
       <c r="H15" s="11"/>
@@ -3504,148 +3771,148 @@
         <v>86</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" s="22" customFormat="1" ht="39.6" spans="1:12">
-      <c r="A16" s="28" t="s">
+    <row r="16" s="20" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A16" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="33"/>
+      <c r="B16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="36"/>
       <c r="D16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="24" t="s">
         <v>61</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" s="22" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A17" s="28" t="s">
+    <row r="17" s="20" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A17" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="33"/>
+      <c r="B17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="36"/>
       <c r="D17" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="24" t="s">
         <v>61</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" s="22" customFormat="1" ht="39.6" spans="1:12">
-      <c r="A18" s="28" t="s">
+    <row r="18" s="20" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="33"/>
+      <c r="B18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="36"/>
       <c r="D18" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="24" t="s">
         <v>61</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A19" s="28" t="s">
+    <row r="19" s="20" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="33"/>
+      <c r="B19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="36"/>
       <c r="D19" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="24" t="s">
         <v>61</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="22" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A20" s="28" t="s">
+    <row r="20" s="20" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A20" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="33"/>
+      <c r="B20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="36"/>
       <c r="D20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="39" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I20" s="11"/>
@@ -3653,412 +3920,412 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" s="23" customFormat="1" ht="72" spans="1:12">
-      <c r="A21" s="28" t="s">
+    <row r="21" s="30" customFormat="1" ht="72" spans="1:12">
+      <c r="A21" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="23" t="s">
+      <c r="B21" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39" t="s">
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41" t="s">
         <v>112</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L21" s="39"/>
-    </row>
-    <row r="22" s="23" customFormat="1" ht="72" spans="1:12">
-      <c r="A22" s="28" t="s">
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" s="30" customFormat="1" ht="72" spans="1:12">
+      <c r="A22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="23" t="s">
+      <c r="B22" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41" t="s">
         <v>117</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="L22" s="39"/>
-    </row>
-    <row r="23" s="23" customFormat="1" ht="60" spans="1:13">
-      <c r="A23" s="28" t="s">
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" s="30" customFormat="1" ht="60" spans="1:13">
+      <c r="A23" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="23" t="s">
+      <c r="B23" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39" t="s">
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41" t="s">
         <v>121</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="39"/>
-      <c r="M23" s="23" t="s">
+      <c r="L23" s="41"/>
+      <c r="M23" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" s="23" customFormat="1" ht="72" spans="1:12">
-      <c r="A24" s="28" t="s">
+    <row r="24" s="30" customFormat="1" ht="72" spans="1:12">
+      <c r="A24" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="23" t="s">
+      <c r="B24" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39" t="s">
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41" t="s">
         <v>112</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" s="23" customFormat="1" ht="72" spans="1:12">
-      <c r="A25" s="28" t="s">
+      <c r="L24" s="41"/>
+    </row>
+    <row r="25" s="30" customFormat="1" ht="72" spans="1:12">
+      <c r="A25" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="23" t="s">
+      <c r="B25" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39" t="s">
+      <c r="H25" s="42"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="L25" s="39"/>
-    </row>
-    <row r="26" s="21" customFormat="1" ht="57.6" spans="1:13">
-      <c r="A26" s="28" t="s">
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A26" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29" t="s">
+      <c r="B26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="K26" s="32" t="s">
+      <c r="H26" s="25"/>
+      <c r="K26" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" s="21" customFormat="1" ht="57.6" spans="1:13">
-      <c r="A27" s="28" t="s">
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A27" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29" t="s">
+      <c r="B27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="K27" s="32" t="s">
+      <c r="H27" s="25"/>
+      <c r="K27" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" s="21" customFormat="1" ht="57.6" spans="1:13">
-      <c r="A28" s="28" t="s">
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A28" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29" t="s">
+      <c r="B28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="K28" s="32" t="s">
+      <c r="H28" s="25"/>
+      <c r="K28" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" s="21" customFormat="1" ht="57.6" spans="1:13">
-      <c r="A29" s="28" t="s">
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A29" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29" t="s">
+      <c r="B29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="K29" s="32" t="s">
+      <c r="H29" s="25"/>
+      <c r="K29" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" s="21" customFormat="1" ht="57.6" spans="1:13">
-      <c r="A30" s="28" t="s">
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A30" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29" t="s">
+      <c r="B30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="K30" s="32" t="s">
+      <c r="H30" s="25"/>
+      <c r="K30" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="30"/>
-    </row>
-    <row r="31" s="23" customFormat="1" ht="60" spans="1:12">
-      <c r="A31" s="28" t="s">
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" s="30" customFormat="1" ht="60" spans="1:12">
+      <c r="A31" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="23" t="s">
+      <c r="B31" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="39" t="s">
+      <c r="H31" s="42"/>
+      <c r="I31" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="39"/>
+      <c r="J31" s="41"/>
       <c r="K31" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="L31" s="39"/>
-    </row>
-    <row r="32" s="23" customFormat="1" ht="39.6" spans="1:12">
-      <c r="A32" s="28" t="s">
+      <c r="L31" s="41"/>
+    </row>
+    <row r="32" s="30" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="23" t="s">
+      <c r="B32" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" s="23" customFormat="1" ht="60" spans="1:12">
-      <c r="A33" s="28" t="s">
+      <c r="L32" s="41"/>
+    </row>
+    <row r="33" s="30" customFormat="1" ht="60" spans="1:12">
+      <c r="A33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="23" t="s">
+      <c r="B33" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="39" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="39"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="41" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" s="11" customFormat="1" ht="39.6" spans="1:12">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="23" t="s">
+      <c r="B34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="K34" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="L34" s="37"/>
+      <c r="L34" s="39"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="3"/>
@@ -4071,18 +4338,18 @@
       <c r="F35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="37" t="s">
+      <c r="K35" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="39.6" spans="1:12">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="3"/>
@@ -4095,13 +4362,13 @@
       <c r="F36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="24" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K36" s="37" t="s">
+      <c r="K36" s="39" t="s">
         <v>29</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -4109,10 +4376,10 @@
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="3"/>
@@ -4125,21 +4392,21 @@
       <c r="F37" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="24" t="s">
         <v>180</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K37" s="39" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="3"/>
@@ -4152,21 +4419,21 @@
       <c r="F38" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="24" t="s">
         <v>180</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K38" s="37" t="s">
+      <c r="K38" s="39" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="3"/>
@@ -4179,34 +4446,34 @@
       <c r="F39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="24" t="s">
         <v>180</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K39" s="37" t="s">
+      <c r="K39" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" s="22" customFormat="1" ht="39.6" spans="1:12">
-      <c r="A40" s="28" t="s">
+    <row r="40" s="20" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A40" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="33"/>
+      <c r="B40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="36"/>
       <c r="D40" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="39" t="s">
         <v>191</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H40" s="11"/>
@@ -4215,68 +4482,68 @@
       <c r="K40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L40" s="37"/>
-    </row>
-    <row r="41" s="22" customFormat="1" ht="39.6" spans="1:12">
-      <c r="A41" s="28" t="s">
+      <c r="L40" s="39"/>
+    </row>
+    <row r="41" s="20" customFormat="1" ht="39.6" spans="1:12">
+      <c r="A41" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="33"/>
+      <c r="B41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="36"/>
       <c r="D41" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="39" t="s">
         <v>191</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="37" t="s">
+      <c r="K41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="37"/>
+      <c r="L41" s="39"/>
     </row>
     <row r="42" s="11" customFormat="1" ht="39.6" spans="1:12">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="23" t="s">
+      <c r="B42" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K42" s="37" t="s">
+      <c r="K42" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L42" s="37" t="s">
+      <c r="L42" s="39" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="3"/>
@@ -4289,18 +4556,18 @@
       <c r="F43" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K43" s="43" t="s">
+      <c r="K43" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="48" spans="1:11">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="3"/>
@@ -4313,18 +4580,18 @@
       <c r="F44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K44" s="43" t="s">
+      <c r="K44" s="29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="48" spans="1:11">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="3"/>
@@ -4337,35 +4604,35 @@
       <c r="F45" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K45" s="43" t="s">
+      <c r="K45" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" s="22" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A46" s="28" t="s">
+    <row r="46" s="20" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A46" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="33"/>
+      <c r="B46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="36"/>
       <c r="D46" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="39" t="s">
         <v>212</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="24" t="s">
         <v>61</v>
       </c>
       <c r="I46" s="11"/>
-      <c r="J46" s="22" t="s">
+      <c r="J46" s="20" t="s">
         <v>214</v>
       </c>
       <c r="K46" s="11" t="s">
@@ -4373,2202 +4640,2725 @@
       </c>
     </row>
     <row r="47" s="11" customFormat="1" ht="36" spans="1:13">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33" t="s">
+      <c r="B47" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="K47" s="33" t="s">
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="K47" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="M47" s="42"/>
+      <c r="M47" s="44"/>
     </row>
     <row r="48" s="11" customFormat="1" ht="72" spans="1:13">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33" t="s">
+      <c r="B48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="K48" s="33" t="s">
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="K48" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="L48" s="37" t="s">
+      <c r="L48" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="M48" s="42"/>
+      <c r="M48" s="44"/>
     </row>
     <row r="49" s="11" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
+      <c r="B49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="K49" s="33" t="s">
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="K49" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="37" t="s">
+      <c r="L49" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="M49" s="42"/>
+      <c r="M49" s="44"/>
     </row>
     <row r="50" s="11" customFormat="1" ht="26.4" spans="1:13">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33" t="s">
+      <c r="B50" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="K50" s="33" t="s">
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="K50" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="L50" s="37" t="s">
+      <c r="L50" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="M50" s="42"/>
+      <c r="M50" s="44"/>
     </row>
     <row r="51" s="11" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33" t="s">
+      <c r="B51" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="K51" s="33" t="s">
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="K51" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="L51" s="37" t="s">
+      <c r="L51" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="M51" s="42"/>
+      <c r="M51" s="44"/>
     </row>
     <row r="52" s="11" customFormat="1" ht="26.4" spans="1:13">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33" t="s">
+      <c r="B52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="G52" s="36" t="s">
+      <c r="G52" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="K52" s="33" t="s">
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="K52" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="L52" s="37" t="s">
+      <c r="L52" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="M52" s="42"/>
+      <c r="M52" s="44"/>
     </row>
     <row r="53" s="11" customFormat="1" ht="26.4" spans="1:13">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33" t="s">
+      <c r="B53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="K53" s="33" t="s">
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="K53" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="L53" s="37" t="s">
+      <c r="L53" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="M53" s="42"/>
+      <c r="M53" s="44"/>
     </row>
     <row r="54" s="11" customFormat="1" ht="36" spans="1:13">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33" t="s">
+      <c r="B54" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="K54" s="33" t="s">
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="K54" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="L54" s="37" t="s">
+      <c r="L54" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="M54" s="42"/>
+      <c r="M54" s="44"/>
     </row>
     <row r="55" s="11" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33" t="s">
+      <c r="B55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F55" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="G55" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="K55" s="33" t="s">
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="K55" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="L55" s="37"/>
-      <c r="M55" s="42"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="44"/>
     </row>
     <row r="56" s="11" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33" t="s">
+      <c r="B56" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="36" t="s">
+      <c r="G56" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="K56" s="37" t="s">
+      <c r="H56" s="24"/>
+      <c r="K56" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L56" s="37"/>
-      <c r="M56" s="36"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="24"/>
     </row>
     <row r="57" s="11" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33" t="s">
+      <c r="B57" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="36" t="s">
+      <c r="G57" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H57" s="36"/>
-      <c r="K57" s="37" t="s">
+      <c r="H57" s="24"/>
+      <c r="K57" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L57" s="37"/>
-      <c r="M57" s="36"/>
-    </row>
-    <row r="58" s="22" customFormat="1" ht="79.95" spans="1:12">
-      <c r="A58" s="28" t="s">
+      <c r="L57" s="39"/>
+      <c r="M57" s="24"/>
+    </row>
+    <row r="58" s="20" customFormat="1" ht="79.95" spans="1:12">
+      <c r="A58" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33" t="s">
+      <c r="B58" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H58" s="36"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="11" t="s">
         <v>263</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="K58" s="37" t="s">
+      <c r="K58" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L58" s="37"/>
-    </row>
-    <row r="59" s="22" customFormat="1" ht="79.2" spans="1:12">
-      <c r="A59" s="28" t="s">
+      <c r="L58" s="39"/>
+    </row>
+    <row r="59" s="20" customFormat="1" ht="79.2" spans="1:12">
+      <c r="A59" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33" t="s">
+      <c r="B59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G59" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H59" s="36"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="11" t="s">
         <v>263</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="K59" s="44" t="s">
+      <c r="K59" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="L59" s="37"/>
-    </row>
-    <row r="60" s="22" customFormat="1" ht="79.2" spans="1:11">
-      <c r="A60" s="28" t="s">
+      <c r="L59" s="39"/>
+    </row>
+    <row r="60" s="20" customFormat="1" ht="79.2" spans="1:11">
+      <c r="A60" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33" t="s">
+      <c r="B60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G60" s="36" t="s">
+      <c r="G60" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="36"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="11" t="s">
         <v>263</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="K60" s="37" t="s">
+      <c r="K60" s="39" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" s="22" customFormat="1" ht="79.2" spans="1:11">
-      <c r="A61" s="28" t="s">
+    <row r="61" s="20" customFormat="1" ht="79.2" spans="1:11">
+      <c r="A61" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33" t="s">
+      <c r="B61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H61" s="36"/>
+      <c r="H61" s="24"/>
       <c r="I61" s="11" t="s">
         <v>263</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="K61" s="22" t="s">
+      <c r="K61" s="20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="62" s="22" customFormat="1" ht="36" spans="1:12">
-      <c r="A62" s="28" t="s">
+    <row r="62" s="20" customFormat="1" ht="36" spans="1:12">
+      <c r="A62" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="41" t="s">
+      <c r="B62" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K62" s="43" t="s">
+      <c r="K62" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="L62" s="22" t="s">
+      <c r="L62" s="20" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="63" s="22" customFormat="1" ht="48" spans="1:12">
-      <c r="A63" s="28" t="s">
+    <row r="63" s="20" customFormat="1" ht="48" spans="1:12">
+      <c r="A63" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="41" t="s">
+      <c r="B63" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="36"/>
+      <c r="D63" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K63" s="43" t="s">
+      <c r="K63" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="L63" s="22" t="s">
+      <c r="L63" s="20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" s="22" customFormat="1" ht="48" spans="1:12">
-      <c r="A64" s="28" t="s">
+    <row r="64" s="20" customFormat="1" ht="48" spans="1:12">
+      <c r="A64" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="41" t="s">
+      <c r="B64" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="G64" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K64" s="41" t="s">
+      <c r="K64" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L64" s="22" t="s">
+      <c r="L64" s="20" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="65" ht="39.6" spans="1:12">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="45" t="s">
+      <c r="B65" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="36"/>
+      <c r="D65" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G65" s="36" t="s">
+      <c r="G65" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K65" s="22" t="s">
+      <c r="K65" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="L65" s="22" t="s">
+      <c r="L65" s="20" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="66" s="22" customFormat="1" ht="40.35" spans="1:11">
-      <c r="A66" s="28" t="s">
+    <row r="66" s="20" customFormat="1" ht="40.35" spans="1:11">
+      <c r="A66" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="46" t="s">
+      <c r="B66" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G66" s="36" t="s">
+      <c r="G66" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K66" s="22" t="s">
+      <c r="K66" s="20" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="67" s="22" customFormat="1" ht="36" spans="1:13">
-      <c r="A67" s="28" t="s">
+    <row r="67" s="20" customFormat="1" ht="36" spans="1:13">
+      <c r="A67" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="47" t="s">
+      <c r="B67" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="G67" s="41" t="s">
+      <c r="G67" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K67" s="59" t="s">
+      <c r="K67" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="M67" s="22" t="s">
+      <c r="M67" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="68" s="22" customFormat="1" ht="36" spans="1:11">
-      <c r="A68" s="28" t="s">
+    <row r="68" s="20" customFormat="1" ht="36" spans="1:11">
+      <c r="A68" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="47" t="s">
+      <c r="B68" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="G68" s="41" t="s">
+      <c r="G68" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K68" s="41" t="s">
+      <c r="K68" s="43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" s="22" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A69" s="28" t="s">
+    <row r="69" s="20" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A69" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B69" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="47" t="s">
+      <c r="B69" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="36"/>
+      <c r="D69" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="G69" s="36" t="s">
+      <c r="G69" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K69" s="36" t="s">
+      <c r="K69" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" s="22" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A70" s="28" t="s">
+    <row r="70" s="20" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A70" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="47" t="s">
+      <c r="B70" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="G70" s="36" t="s">
+      <c r="G70" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K70" s="36" t="s">
+      <c r="K70" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" s="22" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A71" s="28" t="s">
+    <row r="71" s="20" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A71" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="47" t="s">
+      <c r="B71" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="G71" s="36" t="s">
+      <c r="G71" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K71" s="36" t="s">
+      <c r="K71" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" s="22" customFormat="1" ht="36.75" spans="1:13">
-      <c r="A72" s="28" t="s">
+    <row r="72" s="20" customFormat="1" ht="36.75" spans="1:13">
+      <c r="A72" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="45" t="s">
+      <c r="C72" s="36"/>
+      <c r="D72" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="G72" s="36"/>
-      <c r="K72" s="22" t="s">
+      <c r="G72" s="24"/>
+      <c r="K72" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="M72" s="22" t="s">
+      <c r="M72" s="20" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="73" ht="39.6" spans="1:11">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="45" t="s">
+      <c r="B73" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="36"/>
+      <c r="D73" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="G73" s="36" t="s">
+      <c r="G73" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K73" s="60" t="s">
+      <c r="K73" s="58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" s="22" customFormat="1" ht="40.35" spans="1:11">
-      <c r="A74" s="28" t="s">
+    <row r="74" s="20" customFormat="1" ht="40.35" spans="1:11">
+      <c r="A74" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="B74" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="45" t="s">
+      <c r="B74" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="G74" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K74" s="22" t="s">
+      <c r="K74" s="20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="75" s="22" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A75" s="28" t="s">
+    <row r="75" s="20" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A75" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="45" t="s">
+      <c r="B75" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G75" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K75" s="60" t="s">
+      <c r="K75" s="58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" s="22" customFormat="1" ht="24" spans="1:11">
-      <c r="A76" s="28" t="s">
+    <row r="76" s="20" customFormat="1" ht="24" spans="1:11">
+      <c r="A76" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="48" t="s">
+      <c r="B76" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="G76" s="36"/>
-      <c r="K76" s="22" t="s">
+      <c r="G76" s="24"/>
+      <c r="K76" s="20" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="77" s="22" customFormat="1" ht="24" spans="1:11">
-      <c r="A77" s="28" t="s">
+    <row r="77" s="20" customFormat="1" ht="24" spans="1:11">
+      <c r="A77" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="B77" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="48" t="s">
+      <c r="B77" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="G77" s="36"/>
-      <c r="K77" s="22" t="s">
+      <c r="G77" s="24"/>
+      <c r="K77" s="20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="78" s="22" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A78" s="28" t="s">
+    <row r="78" s="20" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A78" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="45" t="s">
+      <c r="B78" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="G78" s="36" t="s">
+      <c r="G78" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K78" s="22" t="s">
+      <c r="K78" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="M78" s="22" t="s">
+      <c r="M78" s="20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="79" s="22" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A79" s="28" t="s">
+    <row r="79" s="20" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A79" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="45" t="s">
+      <c r="B79" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="36"/>
+      <c r="D79" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="G79" s="36" t="s">
+      <c r="G79" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K79" s="22" t="s">
+      <c r="K79" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="M79" s="22" t="s">
+      <c r="M79" s="20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="80" s="22" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A80" s="28" t="s">
+    <row r="80" s="20" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A80" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="45" t="s">
+      <c r="B80" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="G80" s="36" t="s">
+      <c r="G80" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K80" s="22" t="s">
+      <c r="K80" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="M80" s="22" t="s">
+      <c r="M80" s="20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="81" s="24" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A81" s="28" t="s">
+    <row r="81" s="31" customFormat="1" ht="92.4" spans="1:11">
+      <c r="A81" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="49" t="s">
+      <c r="B81" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="E81" s="49" t="s">
+      <c r="E81" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="F81" s="49" t="s">
+      <c r="F81" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="G81" s="36" t="s">
+      <c r="G81" s="24" t="s">
         <v>37</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K81" s="24" t="s">
+      <c r="K81" s="31" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="82" s="24" customFormat="1" ht="36" spans="1:11">
-      <c r="A82" s="28" t="s">
+    <row r="82" s="31" customFormat="1" ht="36" spans="1:11">
+      <c r="A82" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="B82" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="49" t="s">
+      <c r="B82" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="E82" s="49" t="s">
+      <c r="E82" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="49" t="s">
+      <c r="F82" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="G82" s="36" t="s">
+      <c r="G82" s="24" t="s">
         <v>37</v>
       </c>
       <c r="I82" s="11"/>
-      <c r="K82" s="24" t="s">
+      <c r="K82" s="31" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="83" s="24" customFormat="1" ht="57.6" spans="1:11">
-      <c r="A83" s="28" t="s">
+    <row r="83" s="31" customFormat="1" ht="57.6" spans="1:11">
+      <c r="A83" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="B83" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="49" t="s">
+      <c r="B83" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="E83" s="49" t="s">
+      <c r="E83" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="F83" s="49" t="s">
+      <c r="F83" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="G83" s="36" t="s">
+      <c r="G83" s="24" t="s">
         <v>61</v>
       </c>
       <c r="I83" s="11"/>
-      <c r="K83" s="24" t="s">
+      <c r="K83" s="31" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="84" s="24" customFormat="1" ht="57.6" spans="1:13">
-      <c r="A84" s="28" t="s">
+    <row r="84" s="31" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A84" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="B84" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="49" t="s">
+      <c r="B84" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="E84" s="49" t="s">
+      <c r="E84" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="F84" s="49" t="s">
+      <c r="F84" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="G84" s="36" t="s">
+      <c r="G84" s="24" t="s">
         <v>61</v>
       </c>
       <c r="I84" s="11"/>
-      <c r="K84" s="24" t="s">
+      <c r="K84" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="M84" s="24" t="s">
+      <c r="M84" s="31" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="85" s="22" customFormat="1" ht="57.6" spans="1:13">
-      <c r="A85" s="28" t="s">
+    <row r="85" s="20" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A85" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="B85" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="49" t="s">
+      <c r="B85" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="36"/>
+      <c r="D85" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E85" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="G85" s="36" t="s">
+      <c r="G85" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K85" s="24" t="s">
+      <c r="K85" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="M85" s="24" t="s">
+      <c r="M85" s="31" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="86" s="24" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A86" s="28" t="s">
+    <row r="86" s="31" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A86" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="50" t="s">
+      <c r="C86" s="36"/>
+      <c r="D86" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="F86" s="49" t="s">
+      <c r="F86" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="G86" s="36" t="s">
+      <c r="G86" s="24" t="s">
         <v>61</v>
       </c>
       <c r="I86" s="11"/>
-      <c r="K86" s="24" t="s">
+      <c r="K86" s="31" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="87" s="24" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A87" s="28" t="s">
+    <row r="87" s="31" customFormat="1" ht="52.8" spans="1:13">
+      <c r="A87" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="50" t="s">
+      <c r="B87" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="E87" s="49" t="s">
+      <c r="E87" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="F87" s="49" t="s">
+      <c r="F87" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="G87" s="36" t="s">
+      <c r="G87" s="24" t="s">
         <v>180</v>
       </c>
       <c r="I87" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="K87" s="24" t="s">
+      <c r="K87" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="M87" s="22" t="s">
+      <c r="M87" s="20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="88" s="24" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A88" s="28" t="s">
+    <row r="88" s="31" customFormat="1" ht="52.8" spans="1:13">
+      <c r="A88" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="50" t="s">
+      <c r="B88" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="E88" s="49" t="s">
+      <c r="E88" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="F88" s="49" t="s">
+      <c r="F88" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="G88" s="36" t="s">
+      <c r="G88" s="24" t="s">
         <v>180</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="K88" s="24" t="s">
+      <c r="K88" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="M88" s="22" t="s">
+      <c r="M88" s="20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="89" s="24" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A89" s="28" t="s">
+    <row r="89" s="31" customFormat="1" ht="52.8" spans="1:13">
+      <c r="A89" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="50" t="s">
+      <c r="B89" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E89" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="F89" s="49" t="s">
+      <c r="F89" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="G89" s="36" t="s">
+      <c r="G89" s="24" t="s">
         <v>180</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="K89" s="24" t="s">
+      <c r="K89" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L89" s="24" t="s">
+      <c r="L89" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="M89" s="22" t="s">
+      <c r="M89" s="20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="90" s="24" customFormat="1" ht="48" spans="1:13">
-      <c r="A90" s="28" t="s">
+    <row r="90" s="31" customFormat="1" ht="48" spans="1:13">
+      <c r="A90" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C90" s="51"/>
-      <c r="D90" s="50" t="s">
+      <c r="C90" s="52"/>
+      <c r="D90" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="E90" s="49" t="s">
+      <c r="E90" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="F90" s="49" t="s">
+      <c r="F90" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="G90" s="36" t="s">
+      <c r="G90" s="24" t="s">
         <v>396</v>
       </c>
       <c r="I90" s="11"/>
-      <c r="K90" s="24" t="s">
+      <c r="K90" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="M90" s="22" t="s">
+      <c r="M90" s="20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="91" s="22" customFormat="1" ht="48" spans="1:13">
-      <c r="A91" s="28" t="s">
+    <row r="91" s="20" customFormat="1" ht="48" spans="1:13">
+      <c r="A91" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="45" t="s">
+      <c r="C91" s="13"/>
+      <c r="D91" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="F91" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="G91" s="36"/>
-      <c r="K91" s="22" t="s">
+      <c r="G91" s="24"/>
+      <c r="K91" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="M91" s="22" t="s">
+      <c r="M91" s="20" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="92" s="22" customFormat="1" ht="168" spans="1:13">
-      <c r="A92" s="28" t="s">
+    <row r="92" s="20" customFormat="1" ht="168" spans="1:13">
+      <c r="A92" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="45" t="s">
+      <c r="C92" s="13"/>
+      <c r="D92" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F92" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G92" s="36"/>
-      <c r="K92" s="22" t="s">
+      <c r="G92" s="24"/>
+      <c r="K92" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="M92" s="22" t="s">
+      <c r="M92" s="20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="93" s="25" customFormat="1" ht="86.4" spans="1:12">
-      <c r="A93" s="12" t="s">
+    <row r="93" s="32" customFormat="1" ht="86.4" spans="1:12">
+      <c r="A93" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="53" t="s">
+      <c r="C93" s="53"/>
+      <c r="D93" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="F93" s="49" t="s">
+      <c r="F93" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G93" s="41" t="s">
+      <c r="G93" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="I93" s="43"/>
-      <c r="J93" s="25" t="s">
+      <c r="I93" s="29"/>
+      <c r="J93" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="K93" s="43" t="s">
+      <c r="K93" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L93" s="25" t="s">
+      <c r="L93" s="32" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" s="25" customFormat="1" ht="24" spans="1:11">
-      <c r="A94" s="12" t="s">
+    <row r="94" s="32" customFormat="1" ht="24" spans="1:11">
+      <c r="A94" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C94" s="52"/>
-      <c r="D94" s="53" t="s">
+      <c r="C94" s="53"/>
+      <c r="D94" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="E94" s="49" t="s">
+      <c r="E94" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="F94" s="49" t="s">
+      <c r="F94" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G94" s="41" t="s">
+      <c r="G94" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="I94" s="43"/>
-      <c r="J94" s="25" t="s">
+      <c r="I94" s="29"/>
+      <c r="J94" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="K94" s="43" t="s">
+      <c r="K94" s="29" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="95" s="25" customFormat="1" ht="28.8" spans="1:11">
-      <c r="A95" s="12" t="s">
+    <row r="95" s="32" customFormat="1" ht="28.8" spans="1:11">
+      <c r="A95" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C95" s="52"/>
-      <c r="D95" s="53" t="s">
+      <c r="C95" s="53"/>
+      <c r="D95" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="F95" s="49" t="s">
+      <c r="F95" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G95" s="41" t="s">
+      <c r="G95" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="I95" s="43"/>
-      <c r="J95" s="25" t="s">
+      <c r="I95" s="29"/>
+      <c r="J95" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="K95" s="43" t="s">
+      <c r="K95" s="29" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="96" s="25" customFormat="1" ht="43.2" spans="1:11">
-      <c r="A96" s="12" t="s">
+    <row r="96" s="32" customFormat="1" ht="43.2" spans="1:11">
+      <c r="A96" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53" t="s">
+      <c r="C96" s="54"/>
+      <c r="D96" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="E96" s="49" t="s">
+      <c r="E96" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="F96" s="49" t="s">
+      <c r="F96" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="G96" s="36" t="s">
+      <c r="G96" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="I96" s="43"/>
-      <c r="K96" s="25" t="s">
+      <c r="I96" s="29"/>
+      <c r="K96" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="97" s="25" customFormat="1" ht="24" spans="1:11">
-      <c r="A97" s="12" t="s">
+    <row r="97" s="32" customFormat="1" ht="24" spans="1:11">
+      <c r="A97" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53" t="s">
+      <c r="C97" s="54"/>
+      <c r="D97" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="F97" s="49" t="s">
+      <c r="F97" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="G97" s="36" t="s">
+      <c r="G97" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="I97" s="43"/>
-      <c r="K97" s="25" t="s">
+      <c r="I97" s="29"/>
+      <c r="K97" s="32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="98" s="25" customFormat="1" ht="43.2" spans="1:13">
-      <c r="A98" s="12" t="s">
+    <row r="98" s="32" customFormat="1" ht="43.2" spans="1:13">
+      <c r="A98" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53" t="s">
+      <c r="C98" s="54"/>
+      <c r="D98" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="F98" s="49" t="s">
+      <c r="F98" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="G98" s="36" t="s">
+      <c r="G98" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="I98" s="43"/>
-      <c r="K98" s="43" t="s">
+      <c r="I98" s="29"/>
+      <c r="K98" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L98" s="25" t="s">
+      <c r="L98" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="M98" s="25" t="s">
+      <c r="M98" s="32" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="99" s="25" customFormat="1" ht="36" spans="1:11">
-      <c r="A99" s="12" t="s">
+    <row r="99" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A99" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53" t="s">
+      <c r="C99" s="54"/>
+      <c r="D99" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E99" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="F99" s="49" t="s">
+      <c r="F99" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="G99" s="36" t="s">
+      <c r="G99" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="I99" s="43"/>
-      <c r="K99" s="43" t="s">
+      <c r="I99" s="29"/>
+      <c r="K99" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="100" s="25" customFormat="1" ht="24" spans="1:11">
-      <c r="A100" s="12" t="s">
+    <row r="100" s="32" customFormat="1" ht="24" spans="1:11">
+      <c r="A100" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53" t="s">
+      <c r="C100" s="54"/>
+      <c r="D100" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="F100" s="49" t="s">
+      <c r="F100" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="G100" s="36" t="s">
+      <c r="G100" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="I100" s="43"/>
-      <c r="K100" s="43" t="s">
+      <c r="I100" s="29"/>
+      <c r="K100" s="29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" s="25" customFormat="1" ht="43.2" spans="1:13">
-      <c r="A101" s="12" t="s">
+    <row r="101" s="32" customFormat="1" ht="43.2" spans="1:13">
+      <c r="A101" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53" t="s">
+      <c r="C101" s="54"/>
+      <c r="D101" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="E101" s="49" t="s">
+      <c r="E101" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="F101" s="49" t="s">
+      <c r="F101" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="G101" s="36" t="s">
+      <c r="G101" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="I101" s="43"/>
-      <c r="K101" s="43" t="s">
+      <c r="I101" s="29"/>
+      <c r="K101" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L101" s="25" t="s">
+      <c r="L101" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="M101" s="25" t="s">
+      <c r="M101" s="32" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="102" s="26" customFormat="1" ht="26.4" spans="1:12">
-      <c r="A102" s="12" t="s">
+    <row r="102" s="33" customFormat="1" ht="26.4" spans="1:12">
+      <c r="A102" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53" t="s">
+      <c r="C102" s="54"/>
+      <c r="D102" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="E102" s="54" t="s">
+      <c r="E102" s="55" t="s">
         <v>448</v>
       </c>
-      <c r="F102" s="54" t="s">
+      <c r="F102" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="G102" s="36" t="s">
+      <c r="G102" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54" t="s">
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="K102" s="43" t="s">
+      <c r="K102" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L102" s="54"/>
-    </row>
-    <row r="103" s="26" customFormat="1" ht="26.4" spans="1:12">
-      <c r="A103" s="12" t="s">
+      <c r="L102" s="55"/>
+    </row>
+    <row r="103" s="33" customFormat="1" ht="26.4" spans="1:12">
+      <c r="A103" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53" t="s">
+      <c r="C103" s="54"/>
+      <c r="D103" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="E103" s="54" t="s">
+      <c r="E103" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="F103" s="54" t="s">
+      <c r="F103" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="G103" s="36" t="s">
+      <c r="G103" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54" t="s">
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="K103" s="43" t="s">
+      <c r="K103" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="L103" s="54"/>
-    </row>
-    <row r="104" s="26" customFormat="1" ht="26.4" spans="1:12">
-      <c r="A104" s="12" t="s">
+      <c r="L103" s="55"/>
+    </row>
+    <row r="104" s="33" customFormat="1" ht="26.4" spans="1:12">
+      <c r="A104" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53" t="s">
+      <c r="C104" s="54"/>
+      <c r="D104" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="E104" s="54" t="s">
+      <c r="E104" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="F104" s="54" t="s">
+      <c r="F104" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="G104" s="36" t="s">
+      <c r="G104" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54" t="s">
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="K104" s="43" t="s">
+      <c r="K104" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="L104" s="54"/>
-    </row>
-    <row r="105" s="26" customFormat="1" ht="26.4" spans="1:12">
-      <c r="A105" s="12" t="s">
+      <c r="L104" s="55"/>
+    </row>
+    <row r="105" s="33" customFormat="1" ht="26.4" spans="1:12">
+      <c r="A105" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53" t="s">
+      <c r="C105" s="54"/>
+      <c r="D105" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="E105" s="54" t="s">
+      <c r="E105" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="F105" s="54" t="s">
+      <c r="F105" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="G105" s="36" t="s">
+      <c r="G105" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54" t="s">
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="K105" s="43" t="s">
+      <c r="K105" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="L105" s="54"/>
-    </row>
-    <row r="106" s="25" customFormat="1" ht="24" spans="1:11">
-      <c r="A106" s="12" t="s">
+      <c r="L105" s="55"/>
+    </row>
+    <row r="106" s="32" customFormat="1" ht="24" spans="1:11">
+      <c r="A106" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53" t="s">
+      <c r="C106" s="54"/>
+      <c r="D106" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="E106" s="49" t="s">
+      <c r="E106" s="50" t="s">
         <v>466</v>
       </c>
-      <c r="F106" s="49" t="s">
+      <c r="F106" s="50" t="s">
         <v>467</v>
       </c>
-      <c r="G106" s="36" t="s">
+      <c r="G106" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="I106" s="43"/>
-      <c r="K106" s="43" t="s">
+      <c r="I106" s="29"/>
+      <c r="K106" s="29" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="107" s="25" customFormat="1" ht="24" spans="1:11">
-      <c r="A107" s="12" t="s">
+    <row r="107" s="32" customFormat="1" ht="24" spans="1:11">
+      <c r="A107" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53" t="s">
+      <c r="C107" s="54"/>
+      <c r="D107" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="E107" s="49" t="s">
+      <c r="E107" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="F107" s="49" t="s">
+      <c r="F107" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="G107" s="36" t="s">
+      <c r="G107" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="I107" s="43"/>
-      <c r="K107" s="43" t="s">
+      <c r="I107" s="29"/>
+      <c r="K107" s="29" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="108" s="25" customFormat="1" ht="24" spans="1:11">
-      <c r="A108" s="12" t="s">
+    <row r="108" s="32" customFormat="1" ht="24" spans="1:11">
+      <c r="A108" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53" t="s">
+      <c r="C108" s="54"/>
+      <c r="D108" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="E108" s="49" t="s">
+      <c r="E108" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="F108" s="49" t="s">
+      <c r="F108" s="50" t="s">
         <v>467</v>
       </c>
-      <c r="G108" s="36" t="s">
+      <c r="G108" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="I108" s="43"/>
-      <c r="K108" s="43" t="s">
+      <c r="I108" s="29"/>
+      <c r="K108" s="29" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="109" s="21" customFormat="1" ht="43.2" spans="1:13">
-      <c r="A109" s="12" t="s">
+    <row r="109" s="12" customFormat="1" ht="43.2" spans="1:13">
+      <c r="A109" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="55" t="s">
+      <c r="D109" s="21" t="s">
         <v>476</v>
       </c>
       <c r="E109" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="F109" s="31" t="s">
+      <c r="F109" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="G109" s="36" t="s">
+      <c r="G109" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="H109" s="32"/>
-      <c r="I109" s="21"/>
-      <c r="K109" s="43" t="s">
+      <c r="H109" s="25"/>
+      <c r="K109" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="L109" s="30"/>
-      <c r="M109" s="30"/>
-    </row>
-    <row r="110" s="21" customFormat="1" ht="43.2" spans="1:13">
-      <c r="A110" s="12" t="s">
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+    </row>
+    <row r="110" s="12" customFormat="1" ht="43.2" spans="1:13">
+      <c r="A110" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="21" t="s">
         <v>476</v>
       </c>
       <c r="E110" s="56" t="s">
         <v>481</v>
       </c>
-      <c r="F110" s="31" t="s">
+      <c r="F110" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="G110" s="36" t="s">
+      <c r="G110" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H110" s="32"/>
-      <c r="I110" s="21"/>
-      <c r="K110" s="43" t="s">
+      <c r="H110" s="25"/>
+      <c r="K110" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="L110" s="30"/>
-      <c r="M110" s="30"/>
-    </row>
-    <row r="111" s="21" customFormat="1" ht="43.2" spans="1:13">
-      <c r="A111" s="12" t="s">
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+    </row>
+    <row r="111" s="12" customFormat="1" ht="43.2" spans="1:13">
+      <c r="A111" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="55" t="s">
+      <c r="D111" s="21" t="s">
         <v>476</v>
       </c>
       <c r="E111" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="F111" s="31" t="s">
+      <c r="F111" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="G111" s="36" t="s">
+      <c r="G111" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="H111" s="32"/>
-      <c r="I111" s="21"/>
-      <c r="K111" s="43" t="s">
+      <c r="H111" s="25"/>
+      <c r="K111" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="L111" s="30" t="s">
+      <c r="L111" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="M111" s="30"/>
-    </row>
-    <row r="112" s="21" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A112" s="12" t="s">
+      <c r="M111" s="22"/>
+    </row>
+    <row r="112" s="12" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A112" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D112" s="55" t="s">
+      <c r="D112" s="21" t="s">
         <v>489</v>
       </c>
       <c r="E112" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="F112" s="57" t="s">
+      <c r="F112" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="G112" s="36" t="s">
+      <c r="G112" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="H112" s="32"/>
-      <c r="K112" s="43" t="s">
+      <c r="H112" s="25"/>
+      <c r="K112" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="L112" s="30"/>
-      <c r="M112" s="30"/>
-    </row>
-    <row r="113" s="21" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A113" s="12" t="s">
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+    </row>
+    <row r="113" s="12" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A113" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D113" s="55" t="s">
+      <c r="D113" s="21" t="s">
         <v>489</v>
       </c>
       <c r="E113" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="F113" s="57" t="s">
+      <c r="F113" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="G113" s="36" t="s">
+      <c r="G113" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="H113" s="32"/>
-      <c r="K113" s="43" t="s">
+      <c r="H113" s="25"/>
+      <c r="K113" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="L113" s="30"/>
-      <c r="M113" s="30"/>
-    </row>
-    <row r="114" s="21" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A114" s="12" t="s">
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+    </row>
+    <row r="114" s="12" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A114" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D114" s="55" t="s">
+      <c r="D114" s="21" t="s">
         <v>497</v>
       </c>
       <c r="E114" s="56" t="s">
         <v>498</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F114" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="G114" s="36" t="s">
+      <c r="G114" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="H114" s="32"/>
-      <c r="K114" s="43" t="s">
+      <c r="H114" s="25"/>
+      <c r="K114" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="L114" s="30"/>
-      <c r="M114" s="30"/>
-    </row>
-    <row r="115" s="21" customFormat="1" ht="39.6" spans="1:13">
-      <c r="A115" s="12" t="s">
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+    </row>
+    <row r="115" s="12" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A115" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D115" s="55" t="s">
+      <c r="D115" s="21" t="s">
         <v>497</v>
       </c>
       <c r="E115" s="56" t="s">
         <v>501</v>
       </c>
-      <c r="F115" s="57" t="s">
+      <c r="F115" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="G115" s="36" t="s">
+      <c r="G115" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H115" s="32"/>
-      <c r="K115" s="43" t="s">
+      <c r="H115" s="25"/>
+      <c r="K115" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="L115" s="30"/>
-      <c r="M115" s="30"/>
-    </row>
-    <row r="116" s="21" customFormat="1" ht="48" spans="1:13">
-      <c r="A116" s="12" t="s">
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+    </row>
+    <row r="116" s="12" customFormat="1" ht="48" spans="1:13">
+      <c r="A116" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D116" s="55" t="s">
+      <c r="D116" s="21" t="s">
         <v>497</v>
       </c>
       <c r="E116" s="56" t="s">
         <v>504</v>
       </c>
-      <c r="F116" s="57" t="s">
+      <c r="F116" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="G116" s="36" t="s">
+      <c r="G116" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="H116" s="32"/>
-      <c r="K116" s="43" t="s">
+      <c r="H116" s="25"/>
+      <c r="K116" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="L116" s="30"/>
-      <c r="M116" s="30"/>
-    </row>
-    <row r="117" s="24" customFormat="1" ht="28.8" spans="1:11">
-      <c r="A117" s="24">
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+    </row>
+    <row r="117" s="12" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A117" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="H117" s="25"/>
+      <c r="K117" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+    </row>
+    <row r="118" s="12" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A118" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H118" s="25"/>
+      <c r="K118" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+    </row>
+    <row r="119" s="12" customFormat="1" ht="39.6" spans="1:13">
+      <c r="A119" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="H119" s="25"/>
+      <c r="K119" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="120" s="12" customFormat="1" ht="66" spans="1:13">
+      <c r="A120" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H120" s="25"/>
+      <c r="J120" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="K120" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="L120" s="12"/>
+      <c r="M120" s="22"/>
+    </row>
+    <row r="121" s="12" customFormat="1" ht="52.8" spans="1:13">
+      <c r="A121" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H121" s="25"/>
+      <c r="J121" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="K121" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="L121" s="12"/>
+      <c r="M121" s="22"/>
+    </row>
+    <row r="122" s="12" customFormat="1" ht="52.8" spans="1:13">
+      <c r="A122" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H122" s="25"/>
+      <c r="J122" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="K122" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="L122" s="12"/>
+      <c r="M122" s="22"/>
+    </row>
+    <row r="123" s="12" customFormat="1" ht="52.8" spans="1:13">
+      <c r="A123" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H123" s="25"/>
+      <c r="J123" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="K123" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L123" s="12"/>
+      <c r="M123" s="22"/>
+    </row>
+    <row r="124" s="12" customFormat="1" ht="66" spans="1:13">
+      <c r="A124" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="H124" s="25"/>
+      <c r="J124" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="K124" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L124" s="12"/>
+      <c r="M124" s="22"/>
+    </row>
+    <row r="125" s="12" customFormat="1" ht="66" spans="1:13">
+      <c r="A125" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H125" s="25"/>
+      <c r="J125" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="K125" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L125" s="12"/>
+      <c r="M125" s="22"/>
+    </row>
+    <row r="126" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A126" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H126" s="25"/>
+      <c r="K126" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="M126" s="22"/>
+    </row>
+    <row r="127" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A127" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H127" s="25"/>
+      <c r="K127" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="M127" s="22"/>
+    </row>
+    <row r="128" s="12" customFormat="1" ht="72" spans="1:13">
+      <c r="A128" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H128" s="25"/>
+      <c r="K128" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="M128" s="22"/>
+    </row>
+    <row r="129" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A129" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H129" s="25"/>
+      <c r="K129" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="M129" s="22"/>
+    </row>
+    <row r="130" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A130" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H130" s="25"/>
+      <c r="K130" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="M130" s="22"/>
+    </row>
+    <row r="131" s="12" customFormat="1" ht="72" spans="1:13">
+      <c r="A131" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H131" s="25"/>
+      <c r="K131" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="M131" s="22"/>
+    </row>
+    <row r="132" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A132" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="G132" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H132" s="25"/>
+      <c r="K132" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="M132" s="22"/>
+    </row>
+    <row r="133" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A133" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H133" s="25"/>
+      <c r="K133" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="M133" s="22"/>
+    </row>
+    <row r="134" s="12" customFormat="1" ht="72" spans="1:13">
+      <c r="A134" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H134" s="25"/>
+      <c r="K134" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="M134" s="22"/>
+    </row>
+    <row r="135" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A135" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H135" s="25"/>
+      <c r="K135" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="M135" s="22"/>
+    </row>
+    <row r="136" s="12" customFormat="1" ht="57.6" spans="1:13">
+      <c r="A136" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H136" s="25"/>
+      <c r="K136" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="M136" s="22"/>
+    </row>
+    <row r="137" s="31" customFormat="1" ht="28.8" spans="1:11">
+      <c r="A137" s="31">
         <v>3001</v>
       </c>
-      <c r="B117" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D117" s="58" t="s">
-        <v>507</v>
-      </c>
-      <c r="E117" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="F117" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="G117" s="36" t="s">
+      <c r="B137" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="D137" s="59" t="s">
+        <v>577</v>
+      </c>
+      <c r="E137" s="55" t="s">
+        <v>578</v>
+      </c>
+      <c r="F137" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="G137" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="J117" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="K117" s="24" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="118" s="24" customFormat="1" ht="28.8" spans="1:11">
-      <c r="A118" s="24">
+      <c r="J137" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="K137" s="31" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="138" s="31" customFormat="1" ht="28.8" spans="1:11">
+      <c r="A138" s="31">
         <v>3002</v>
       </c>
-      <c r="B118" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D118" s="58" t="s">
-        <v>507</v>
-      </c>
-      <c r="E118" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="F118" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="G118" s="36" t="s">
+      <c r="B138" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="D138" s="59" t="s">
+        <v>577</v>
+      </c>
+      <c r="E138" s="55" t="s">
+        <v>578</v>
+      </c>
+      <c r="F138" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="G138" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="J118" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="K118" s="24" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="119" s="22" customFormat="1" ht="14.4" spans="1:11">
-      <c r="A119" s="24">
+      <c r="J138" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="K138" s="31" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="139" s="20" customFormat="1" ht="14.4" spans="1:11">
+      <c r="A139" s="31">
         <v>3003</v>
       </c>
-      <c r="B119" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="E119" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="G119" s="11" t="s">
+      <c r="B139" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E139" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G139" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="J119" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="K119" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="120" s="22" customFormat="1" ht="36.75" spans="1:13">
-      <c r="A120" s="24">
+      <c r="H139" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="140" s="20" customFormat="1" ht="36.75" spans="1:13">
+      <c r="A140" s="31">
         <v>3004</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="E120" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="G120" s="11" t="s">
+      <c r="B140" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E140" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G140" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H120" s="11"/>
-      <c r="J120" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="K120" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="M120" s="22" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="121" s="22" customFormat="1" ht="15.6" spans="1:11">
-      <c r="A121" s="24">
+      <c r="H140" s="11"/>
+      <c r="J140" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="M140" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="141" s="20" customFormat="1" ht="15.6" spans="1:11">
+      <c r="A141" s="31">
         <v>3005</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="E121" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="G121" s="11" t="s">
+      <c r="B141" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E141" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G141" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H121" s="11"/>
-      <c r="J121" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="K121" s="60" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="122" s="22" customFormat="1" ht="14.4" spans="1:11">
-      <c r="A122" s="24">
+      <c r="H141" s="11"/>
+      <c r="J141" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="K141" s="58" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="142" s="20" customFormat="1" ht="14.4" spans="1:11">
+      <c r="A142" s="31">
         <v>3006</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="E122" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="K122" s="37" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="123" s="22" customFormat="1" ht="14.4" spans="1:11">
-      <c r="A123" s="24">
+      <c r="B142" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="K142" s="39" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="143" s="20" customFormat="1" ht="14.4" spans="1:11">
+      <c r="A143" s="31">
         <v>3007</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="E123" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="K123" s="37" t="s">
+      <c r="B143" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E143" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="K143" s="39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="124" s="24" customFormat="1" ht="28.8" spans="1:11">
-      <c r="A124" s="24">
+    <row r="144" s="31" customFormat="1" ht="28.8" spans="1:11">
+      <c r="A144" s="31">
         <v>3008</v>
       </c>
-      <c r="B124" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="G124" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="K124" s="24" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="125" s="24" customFormat="1" ht="28.8" spans="1:11">
-      <c r="A125" s="24">
+      <c r="B144" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="K144" s="31" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="145" s="31" customFormat="1" ht="28.8" spans="1:11">
+      <c r="A145" s="31">
         <v>3009</v>
       </c>
-      <c r="B125" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D125" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="G125" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="K125" s="24" t="s">
+      <c r="B145" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="F145" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="K145" s="31" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="126" s="22" customFormat="1" ht="43.2" spans="1:11">
-      <c r="A126" s="24">
+    <row r="146" s="20" customFormat="1" ht="43.2" spans="1:11">
+      <c r="A146" s="31">
         <v>3010</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="G126" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="H126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="37" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="127" s="22" customFormat="1" ht="43.2" spans="1:11">
-      <c r="A127" s="24">
+      <c r="B146" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="G146" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="H146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="39" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="147" s="20" customFormat="1" ht="43.2" spans="1:11">
+      <c r="A147" s="31">
         <v>3011</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="G127" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="H127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="37" t="s">
+      <c r="B147" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="F147" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="H147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="39" t="s">
         <v>319</v>
       </c>
     </row>
@@ -6581,10 +7371,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6598,45 +7388,75 @@
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="1" ht="24" spans="1:13">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="2" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="K2" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="21"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
